--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>ELAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>657700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>787000</v>
+      </c>
+      <c r="F8" s="3">
         <v>771300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>781600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>731100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>799300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>761100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>770200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>736200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>697100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1437600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>332700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>410100</v>
+      </c>
+      <c r="F9" s="3">
         <v>360400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>356000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>343800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>412500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>369800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>431500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>360000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>376200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>712700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>376900</v>
+      </c>
+      <c r="F10" s="3">
         <v>410900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>425600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>387300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>386800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>391300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>338700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>376200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>320900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>724900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F12" s="3">
         <v>69900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>68800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>64100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>61100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>58900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>61400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>65200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>61900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>127900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,96 +1001,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F14" s="3">
         <v>77200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>31800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>24900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>46800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>12400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>68000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>23700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>181600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F15" s="3">
         <v>50700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>49300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>49000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>50100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>48700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>49400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>49200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>51600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>109400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>711700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>766300</v>
+      </c>
+      <c r="F17" s="3">
         <v>750500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>706800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>662900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>755600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>668800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>801400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>656800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>708100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1520000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F18" s="3">
         <v>20800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>74800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>68200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>43700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>92300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-31200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>79400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-82400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,228 +1242,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-14600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-24900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-13500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-8800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>14400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>97800</v>
+      </c>
+      <c r="F21" s="3">
         <v>84900</v>
       </c>
-      <c r="E21" s="3">
-        <v>140200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>148700</v>
-      </c>
       <c r="G21" s="3">
+        <v>148100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>140800</v>
+      </c>
+      <c r="I21" s="3">
         <v>92500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>151500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>35300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>151800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>66100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>88100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E22" s="3">
         <v>18700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="G22" s="3">
         <v>20700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>20800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>21000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>50200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>44800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>78800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-40000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>77500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-68000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-22500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>14300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>13300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-18600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>18600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>22800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>60500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F26" s="3">
         <v>10000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>35900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>31500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>16400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>60200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-62800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>72700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-20700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-128500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F27" s="3">
         <v>10000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>35900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>31500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>16400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>60200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-62800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>72700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-20700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-128500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,28 +1688,34 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F32" s="3">
         <v>14600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>24900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>13500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>8800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-14400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F33" s="3">
         <v>10000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>35900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>31500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>16400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>60200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-62800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>72700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-20700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-128500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F35" s="3">
         <v>10000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>35900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>31500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>16400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>60200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-62800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>72700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-20700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-128500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,35 +2137,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1206400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>334000</v>
+      </c>
+      <c r="F41" s="3">
         <v>309200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>385100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>272100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>474800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>321000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2183,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,35 +2233,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>752400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>889900</v>
+      </c>
+      <c r="F43" s="3">
         <v>823400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>831500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>827400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>709400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>636900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>623700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,35 +2283,41 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1019000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1050700</v>
+      </c>
+      <c r="F44" s="3">
         <v>1068700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1053100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1035500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1004100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1008700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1005600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2142,35 +2333,41 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>98500</v>
+      </c>
+      <c r="F45" s="3">
         <v>109100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>113800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>143300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>316600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>758100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>106600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,35 +2383,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3120600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2373100</v>
+      </c>
+      <c r="F46" s="3">
         <v>2310400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2383500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2278300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2504900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2703700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2056900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,35 +2433,41 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F47" s="3">
         <v>17900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>16300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>15700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>15300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>14900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>12800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2274,35 +2483,41 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>930100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1040300</v>
+      </c>
+      <c r="F48" s="3">
         <v>993400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1012400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1010900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>922400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>909300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>877700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,35 +2533,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5459500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5472400</v>
+      </c>
+      <c r="F49" s="3">
         <v>5381400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5312400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5319600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5411000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5483600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5467200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2583,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,35 +2683,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>81200</v>
+      </c>
+      <c r="F52" s="3">
         <v>120600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>132300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>122900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>103100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>100000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>162800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2733,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,35 +2783,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9727200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8985800</v>
+      </c>
+      <c r="F54" s="3">
         <v>8823700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8856900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8747400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8956700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9211500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8577400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2833,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,35 +2877,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>222600</v>
+      </c>
+      <c r="F57" s="3">
         <v>206100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>242900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>252100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>205200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>202700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>193900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,29 +2923,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E58" s="3">
         <v>24500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="G58" s="3">
         <v>27100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>29000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>29000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,44 +2964,50 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>466500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>571400</v>
+      </c>
+      <c r="F59" s="3">
         <v>510900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>507500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>427100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>736500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1042700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>364500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,35 +3023,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>707500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>818500</v>
+      </c>
+      <c r="F60" s="3">
         <v>741500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>777500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>708200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>970700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1245400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>558400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,32 +3073,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2035600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2330500</v>
+      </c>
+      <c r="F61" s="3">
         <v>2335600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2382000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2436600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2443300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2478500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2838,35 +3123,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>322600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>289900</v>
+      </c>
+      <c r="F62" s="3">
         <v>258900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>431900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>406400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>345200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>350500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>432400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3173,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,35 +3323,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3065700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3438900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3336000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3591400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3551200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3759200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4074400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>990800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3373,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,35 +3593,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>84300</v>
+      </c>
+      <c r="F72" s="3">
         <v>93800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>83800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>47900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>16400</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
         <v>7947500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3643,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,35 +3793,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6661500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5546900</v>
+      </c>
+      <c r="F76" s="3">
         <v>5487700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5265500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5196200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5197500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5137100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>7586600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3843,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F81" s="3">
         <v>10000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>35900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>31500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>16400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>60200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-62800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>72700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-20700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-128500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>83400</v>
+      </c>
+      <c r="F83" s="3">
         <v>78700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>69300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>83100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>73700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>72700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>75300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>74300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>75200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>156100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>126300</v>
+      </c>
+      <c r="F89" s="3">
         <v>39600</v>
       </c>
-      <c r="E89" s="3">
-        <v>52600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>5600</v>
-      </c>
       <c r="G89" s="3">
+        <v>50100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I89" s="3">
         <v>139500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>163900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>136900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>47000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>76500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>90600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-34200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-23800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-28000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-60200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-17800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-23800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-32700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-21700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-83000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-49000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-28500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-48100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-21400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-23100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-34400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-25300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-903800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4808,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>896600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-48800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>89700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-339500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-362400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>450900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-47200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-76500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>31600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>811900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F101" s="3">
         <v>15900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-14500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>13600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>20500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>6900</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>872000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-76300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>96000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-376900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-257400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>613900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>57600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-60000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>79200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>ELAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,47 +738,50 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>586300</v>
+      </c>
+      <c r="E8" s="3">
         <v>657700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>787000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>771300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>781600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>731100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>799300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>761100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>770200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>736200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>697100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1437600</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,47 +791,50 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>295900</v>
+      </c>
+      <c r="E9" s="3">
         <v>332700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>410100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>360400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>356000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>343800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>412500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>369800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>431500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>360000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>376200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>712700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,47 +844,50 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>290400</v>
+      </c>
+      <c r="E10" s="3">
         <v>325000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>376900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>410900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>425600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>387300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>386800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>391300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>338700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>376200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>320900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>724900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,47 +920,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E12" s="3">
         <v>66800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>67300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>69900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>68800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>64100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>61100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>58900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>61400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>65200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>61900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>127900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,47 +1024,50 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E14" s="3">
         <v>78600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>51600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>77200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>31800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>46800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>68000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>181600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,47 +1077,50 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E15" s="3">
         <v>51600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>51400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>50700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>49300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>49000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>50100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>48700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>49400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>49200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>51600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>109400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,47 +1150,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>686500</v>
+      </c>
+      <c r="E17" s="3">
         <v>711700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>766300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>750500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>706800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>662900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>755600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>668800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>801400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>656800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>708100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1520000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,47 +1201,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-54000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>74800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>92300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-31200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>79400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-82400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,47 +1277,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,47 +1328,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E21" s="3">
         <v>30200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>97800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>84900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>148100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>140800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>92500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>151500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>35300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>151800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>66100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>88100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,40 +1381,43 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E22" s="3">
         <v>16500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>18700</v>
       </c>
       <c r="F22" s="3">
         <v>18700</v>
       </c>
       <c r="G22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="H22" s="3">
         <v>20700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>20800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>21000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1385,8 +1425,8 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1394,47 +1434,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-67800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>50200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>78800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>77500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-68000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,47 +1487,50 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-18700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-22500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-18600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>60500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,47 +1593,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-49100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-62800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>72700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-128500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,47 +1646,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-49100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>60200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-62800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>72700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-128500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,19 +1752,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1714,11 +1775,11 @@
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,47 +1911,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,47 +1964,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-49100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>60200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-62800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>72700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-128500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,47 +2070,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-49100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>60200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-62800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>72700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-128500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,52 +2123,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2181,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,38 +2225,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1391100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1206400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>334000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>309200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>385100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>272100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>474800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>321000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,38 +2329,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>616800</v>
+      </c>
+      <c r="E43" s="3">
         <v>752400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>889900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>823400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>831500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>827400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>709400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>636900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>623700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,38 +2382,41 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1065300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1019000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1050700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1068700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1053100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1035500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1004100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1008700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1005600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2339,38 +2435,41 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E45" s="3">
         <v>142800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>98500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>109100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>113800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>143300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>316600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>758100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>106600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,38 +2488,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3191300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3120600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2373100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2310400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2383500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2278300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2504900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2703700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2056900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,38 +2541,41 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E47" s="3">
         <v>20000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>15700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>15300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,38 +2594,41 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>924100</v>
+      </c>
+      <c r="E48" s="3">
         <v>930100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1040300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>993400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1012400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1010900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>922400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>909300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>877700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,38 +2647,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5476700</v>
+      </c>
+      <c r="E49" s="3">
         <v>5459500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5472400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5381400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5312400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5319600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5411000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5483600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5467200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,38 +2806,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>264300</v>
+      </c>
+      <c r="E52" s="3">
         <v>197000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>81200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>120600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>132300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>122900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>103100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>162800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,38 +2912,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9876000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9727200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8985800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8823700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8856900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8747400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8956700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9211500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8577400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,38 +3009,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>242500</v>
+      </c>
+      <c r="E57" s="3">
         <v>215000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>222600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>206100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>242900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>252100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>205200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>202700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>193900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,31 +3060,34 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E58" s="3">
         <v>26000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>24500</v>
       </c>
       <c r="F58" s="3">
         <v>24500</v>
       </c>
       <c r="G58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="H58" s="3">
         <v>27100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>29000</v>
       </c>
       <c r="I58" s="3">
         <v>29000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>29000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2970,8 +3104,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -2979,38 +3113,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E59" s="3">
         <v>466500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>571400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>510900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>507500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>427100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>736500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1042700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>364500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,38 +3166,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>835400</v>
+      </c>
+      <c r="E60" s="3">
         <v>707500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>818500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>741500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>777500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>708200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>970700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1245400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>558400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,35 +3219,38 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2030400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2035600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2330500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2335600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2382000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2436600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2443300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2478500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3129,38 +3272,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>358300</v>
+      </c>
+      <c r="E62" s="3">
         <v>322600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>289900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>258900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>431900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>406400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>345200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>350500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>432400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,38 +3484,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3224100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3065700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3438900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3336000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3591400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3551200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3759200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4074400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>990800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,38 +3770,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E72" s="3">
         <v>33800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>84300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>93800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>83800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>47900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16400</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
         <v>7947500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,38 +3982,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6651900</v>
+      </c>
+      <c r="E76" s="3">
         <v>6661500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5546900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5487700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5265500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5196200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5197500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5137100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7586600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4088,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,47 +4146,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-49100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>60200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-62800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>72700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-128500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,47 +4222,48 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E83" s="3">
         <v>81500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>83400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>78700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>73700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>72700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>75300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>74300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>156100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,47 +4538,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>159300</v>
+      </c>
+      <c r="E89" s="3">
         <v>4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>126300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>39600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>50100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>139500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>163900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>136900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>47000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>76500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>90600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,47 +4614,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,47 +4771,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-74300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-83000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-49000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-903800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,47 +5057,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E100" s="3">
         <v>896600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-48800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>89700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-339500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-362400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>450900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-47200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-76500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>31600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>811900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,47 +5110,50 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-21000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>15900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>20500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6900</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4914,47 +5163,50 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E102" s="3">
         <v>872000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-76300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>96000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-376900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-257400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>613900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>57600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>79200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>ELAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -741,50 +742,53 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>889600</v>
+      </c>
+      <c r="E8" s="3">
         <v>586300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>657700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>787000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>771300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>781600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>731100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>799300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>761100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>770200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>736200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>697100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1437600</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -794,50 +798,53 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>441800</v>
+      </c>
+      <c r="E9" s="3">
         <v>295900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>332700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>410100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>360400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>356000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>343800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>412500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>369800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>431500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>360000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>376200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>712700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,50 +854,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>447800</v>
+      </c>
+      <c r="E10" s="3">
         <v>290400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>325000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>376900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>410900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>425600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>387300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>386800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>391300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>338700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>376200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>320900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>724900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,50 +934,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E12" s="3">
         <v>59400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>66800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>67300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>69900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>68800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>64100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>61100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>58900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>61400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>65200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>61900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>127900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,50 +1044,53 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>262200</v>
+      </c>
+      <c r="E14" s="3">
         <v>119400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>78600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>51600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>77200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>31800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>24900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>46800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>68000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>181600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1080,50 +1100,53 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E15" s="3">
         <v>49000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>51600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>51400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>50700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>49300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>49000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>50100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>48700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>49400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>49200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>51600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>109400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,50 +1177,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1165400</v>
+      </c>
+      <c r="E17" s="3">
         <v>686500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>711700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>766300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>750500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>706800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>662900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>755600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>668800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>801400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>656800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>708100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1520000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1204,50 +1231,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-275800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-54000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>74800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-31200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>79400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-82400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,50 +1311,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E20" s="3">
         <v>47900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-14600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1331,50 +1365,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E21" s="3">
         <v>28600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>97800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>84900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>148100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>140800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>92500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>151500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>151800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>66100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>88100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,43 +1421,46 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E22" s="3">
         <v>24800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>18700</v>
       </c>
       <c r="G22" s="3">
         <v>18700</v>
       </c>
       <c r="H22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I22" s="3">
         <v>20700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1428,8 +1468,8 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1437,50 +1477,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-209000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-77100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-67800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>50200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>78800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>77500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-68000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,50 +1533,53 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-23900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-18700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-22500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-18600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>60500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,50 +1645,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-53200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-49100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-62800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>72700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-128500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,50 +1701,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-53200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-49100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-62800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>72700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-128500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1766,11 +1827,11 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1778,11 +1839,11 @@
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,50 +1981,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-114900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-47900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>14600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,50 +2037,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-53200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-49100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-62800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>72700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-128500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,50 +2149,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-53200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-49100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-62800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>72700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-128500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,55 +2205,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2266,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,41 +2312,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>659900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1391100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1206400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>334000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>309200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>385100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>272100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>474800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>321000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,41 +2422,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>833100</v>
+      </c>
+      <c r="E43" s="3">
         <v>616800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>752400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>889900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>823400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>831500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>827400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>709400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>636900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>623700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,41 +2478,44 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1597100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1065300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1019000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1050700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1068700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1053100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1035500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1004100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1008700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1005600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,41 +2534,44 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E45" s="3">
         <v>118100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>142800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>98500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>109100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>113800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>143300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>316600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>758100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>106600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,41 +2590,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3281400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3191300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3120600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2373100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2310400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2383500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2278300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2504900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2703700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2056900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,41 +2646,44 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E47" s="3">
         <v>19600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>15700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>15300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2597,41 +2702,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1242500</v>
+      </c>
+      <c r="E48" s="3">
         <v>924100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>930100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1040300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>993400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1012400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1010900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>922400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>909300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>877700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,41 +2758,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12220300</v>
+      </c>
+      <c r="E49" s="3">
         <v>5476700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5459500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5472400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5381400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5312400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5319600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5411000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5483600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5467200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,41 +2926,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>471100</v>
+      </c>
+      <c r="E52" s="3">
         <v>264300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>197000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>81200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>120600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>132300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>122900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>103100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>162800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,41 +3038,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17237000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9876000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9727200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8985800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8823700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8856900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8747400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8956700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9211500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8577400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,41 +3140,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>355900</v>
+      </c>
+      <c r="E57" s="3">
         <v>242500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>215000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>222600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>206100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>242900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>252100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>205200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>202700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>193900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,34 +3194,37 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>553600</v>
+      </c>
+      <c r="E58" s="3">
         <v>25900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>26000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>24500</v>
       </c>
       <c r="G58" s="3">
         <v>24500</v>
       </c>
       <c r="H58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I58" s="3">
         <v>27100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>29000</v>
       </c>
       <c r="J58" s="3">
         <v>29000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>29000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -3107,8 +3241,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3116,41 +3250,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>961700</v>
+      </c>
+      <c r="E59" s="3">
         <v>567000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>466500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>571400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>510900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>507500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>427100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>736500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1042700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>364500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,41 +3306,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1871200</v>
+      </c>
+      <c r="E60" s="3">
         <v>835400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>707500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>818500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>741500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>777500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>708200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>970700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1245400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>558400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,38 +3362,41 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5586500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2030400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2035600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2330500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2335600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2382000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2436600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2443300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2478500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3275,41 +3418,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1435100</v>
+      </c>
+      <c r="E62" s="3">
         <v>358300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>322600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>289900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>258900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>431900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>406400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>345200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>350500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>432400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,41 +3642,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8892800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3224100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3065700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3438900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3336000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3591400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3551200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3759200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4074400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>990800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,41 +3944,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>84300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>93800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>83800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>47900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16400</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
         <v>7947500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,41 +4168,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8344200</v>
+      </c>
+      <c r="E76" s="3">
         <v>6651900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6661500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5546900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5487700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5265500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5196200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5197500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5137100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7586600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,55 +4280,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4149,50 +4341,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-53200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-49100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-62800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>72700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-128500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,50 +4421,51 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E83" s="3">
         <v>80900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>81500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>78700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>83100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>73700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>72700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>75300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>74300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>156100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,50 +4755,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-111700</v>
+      </c>
+      <c r="E89" s="3">
         <v>159300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>126300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>39600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>50100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>139500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>163900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>136900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>47000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>76500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>90600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,50 +4835,51 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
         <v>-12600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-60200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,50 +5001,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4696900</v>
+      </c>
+      <c r="E94" s="3">
         <v>10600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-74300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-83000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-49000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-48100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-903800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,50 +5303,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4068300</v>
+      </c>
+      <c r="E100" s="3">
         <v>7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>896600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-48800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>89700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-339500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-362400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>450900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-47200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-76500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>31600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>811900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,50 +5359,53 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E101" s="3">
         <v>7500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-21000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>15900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6900</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5166,50 +5415,53 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-731200</v>
+      </c>
+      <c r="E102" s="3">
         <v>184700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>872000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-76300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>96000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-376900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-257400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>613900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>57600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-60000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>79200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>ELAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,53 +745,56 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1139700</v>
+      </c>
+      <c r="E8" s="3">
         <v>889600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>586300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>657700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>787000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>771300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>781600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>731100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>799300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>761100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>770200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>736200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>697100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1437600</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -801,53 +804,56 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E9" s="3">
         <v>441800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>295900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>332700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>410100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>360400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>356000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>343800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>412500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>369800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>431500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>360000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>376200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>712700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,53 +863,56 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>543500</v>
+      </c>
+      <c r="E10" s="3">
         <v>447800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>290400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>325000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>376900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>410900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>425600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>387300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>386800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>391300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>338700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>376200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>320900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>724900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,53 +947,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E12" s="3">
         <v>88100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>59400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>66800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>67300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>69900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>68800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>64100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>61100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>58900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>61400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>65200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>61900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>127900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,53 +1063,56 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>167300</v>
+      </c>
+      <c r="E14" s="3">
         <v>262200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>119400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>78600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>51600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>77200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>31800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>46800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>68000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>181600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,53 +1122,56 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E15" s="3">
         <v>95600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>49000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>51600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>51400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>50700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>49300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>49000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>50100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>48700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>49400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>49200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>51600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>109400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,53 +1203,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1414000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1165400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>686500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>711700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>766300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>750500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>706800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>662900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>755600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>668800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>801400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>656800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>708100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1520000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,53 +1260,56 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-274300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-275800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-54000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>74800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-31200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>79400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-82400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,53 +1344,54 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E20" s="3">
         <v>114900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>47900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-14600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1368,53 +1401,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>30200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>97800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>84900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>148100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>140800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>92500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>151500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>35300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>151800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>66100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>88100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1424,46 +1460,49 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E22" s="3">
         <v>48100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>18700</v>
       </c>
       <c r="H22" s="3">
         <v>18700</v>
       </c>
       <c r="I22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="J22" s="3">
         <v>20700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1471,8 +1510,8 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1480,53 +1519,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-318100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-209000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-77100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-67800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>50200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>78800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>77500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,53 +1578,56 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-74000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-23900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-18700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-22500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-18600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>60500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,8 +1637,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,53 +1696,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-322800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-135000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-53200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-49100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-62800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>72700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-128500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,53 +1755,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-322800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-135000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-53200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-49100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-62800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>72700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-128500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1830,11 +1890,11 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1842,11 +1902,11 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,53 +2050,56 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-114900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-47900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>14600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,53 +2109,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-322800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-135000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-53200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-49100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-62800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>72700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-128500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,53 +2227,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-322800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-135000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-53200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-49100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-62800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>72700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-128500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2269,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,44 +2398,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>494700</v>
+      </c>
+      <c r="E41" s="3">
         <v>659900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1391100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1206400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>334000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>309200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>385100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>272100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>474800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>321000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2455,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,44 +2514,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1076700</v>
+      </c>
+      <c r="E43" s="3">
         <v>833100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>616800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>752400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>889900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>823400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>831500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>827400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>709400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>636900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>623700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,44 +2573,47 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1578100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1597100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1065300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1019000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1050700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1068700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1053100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1035500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1004100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1008700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1005600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,44 +2632,47 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E45" s="3">
         <v>191300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>118100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>142800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>98500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>109100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>113800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>143300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>316600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>758100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>106600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,44 +2691,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3416500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3281400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3191300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3120600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2373100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2310400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2383500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2278300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2504900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2703700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2056900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,44 +2750,47 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E47" s="3">
         <v>21700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>16300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>15700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,44 +2809,47 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1503400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1242500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>924100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>930100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1040300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>993400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1012400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1010900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>922400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>909300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>877700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,44 +2868,47 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12612100</v>
+      </c>
+      <c r="E49" s="3">
         <v>12220300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5476700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5459500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5472400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5381400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5312400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5319600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5411000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5483600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5467200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2927,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,44 +3045,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>127300</v>
+      </c>
+      <c r="E52" s="3">
         <v>471100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>264300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>197000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>81200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>120600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>132300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>122900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>103100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>162800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,44 +3163,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17692700</v>
+      </c>
+      <c r="E54" s="3">
         <v>17237000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9876000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9727200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8985800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8823700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8856900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8747400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8956700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9211500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8577400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,44 +3270,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E57" s="3">
         <v>355900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>242500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>215000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>222600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>206100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>242900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>252100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>205200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>202700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>193900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,37 +3327,40 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>554500</v>
+      </c>
+      <c r="E58" s="3">
         <v>553600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>24500</v>
       </c>
       <c r="H58" s="3">
         <v>24500</v>
       </c>
       <c r="I58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J58" s="3">
         <v>27100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>29000</v>
       </c>
       <c r="K58" s="3">
         <v>29000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>29000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -3244,8 +3377,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3253,44 +3386,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1020800</v>
+      </c>
+      <c r="E59" s="3">
         <v>961700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>567000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>466500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>571400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>510900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>507500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>427100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>736500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1042700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>364500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,44 +3445,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2076300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1871200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>835400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>707500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>818500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>741500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>777500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>708200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>970700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1245400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>558400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,41 +3504,44 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5572400</v>
+      </c>
+      <c r="E61" s="3">
         <v>5586500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2030400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2035600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2330500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2335600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2382000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2436600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2443300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2478500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3421,44 +3563,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1568100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1435100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>358300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>322600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>289900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>258900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>431900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>406400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>345200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>350500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>432400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,44 +3799,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9216800</v>
+      </c>
+      <c r="E66" s="3">
         <v>8892800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3224100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3065700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3438900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3336000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3591400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3551200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3759200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4074400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>990800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,44 +4117,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-477200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-154400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>33800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>84300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>93800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>83800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16400</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
         <v>7947500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,44 +4353,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8475900</v>
+      </c>
+      <c r="E76" s="3">
         <v>8344200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6651900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6661500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5546900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5487700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5265500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5196200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5197500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5137100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7586600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4344,53 +4535,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-322800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-135000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-53200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-49100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-62800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>72700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-128500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,53 +4619,54 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E83" s="3">
         <v>132300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>80900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>81500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>78700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>69300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>83100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>73700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>72700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>74300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>75200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>156100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4478,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,53 +4971,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-111700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>159300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>126300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>39600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>50100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>139500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>163900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>136900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>47000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>76500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>90600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4814,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,53 +5055,54 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-118400</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>-12600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4892,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,53 +5230,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-83000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-903800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5060,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,53 +5548,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E100" s="3">
         <v>4068300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>896600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-48800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>89700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-339500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-362400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>450900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-47200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-76500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>31600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>811900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5362,53 +5607,56 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E101" s="3">
         <v>9100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-21000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>15900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>20500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6900</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,53 +5666,56 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-165200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-731200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>184700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>872000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-76300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>96000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-376900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-257400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>613900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>57600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-60000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>79200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>ELAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,56 +749,59 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1139700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>889600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>586300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>657700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>787000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>771300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>781600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>731100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>799300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>761100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>770200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>736200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>697100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1437600</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,56 +811,59 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E9" s="3">
         <v>596200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>441800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>295900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>332700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>410100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>360400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>356000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>343800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>412500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>369800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>431500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>360000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>376200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>712700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,56 +873,59 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E10" s="3">
         <v>543500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>447800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>290400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>325000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>376900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>410900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>425600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>387300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>386800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>391300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>338700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>376200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>320900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>724900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,56 +961,57 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E12" s="3">
         <v>112700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>88100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>59400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>66800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>67300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>69900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>68800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>64100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>61100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>58900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>61400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>65200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>61900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>127900</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,56 +1083,59 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E14" s="3">
         <v>167300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>262200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>119400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>78600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>51600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>77200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>31800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>46800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>68000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>181600</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,56 +1145,59 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E15" s="3">
         <v>163700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>95600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>49000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>51600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>51400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>50700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>49300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>49000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>50100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>48700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>49400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>49200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>51600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>109400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1230,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1261000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1414000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1165400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>686500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>711700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>766300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>750500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>706800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>662900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>755600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>668800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>801400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>656800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>708100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1520000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,56 +1290,59 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-274300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-275800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-54000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>74800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-31200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>79400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-82400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,56 +1378,57 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>16600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>114900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>47900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,56 +1438,59 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-35500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>97800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>84900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>148100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>140800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>92500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>151500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>35300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>151800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>88100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,49 +1500,52 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E22" s="3">
         <v>60400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>18700</v>
       </c>
       <c r="I22" s="3">
         <v>18700</v>
       </c>
       <c r="J22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K22" s="3">
         <v>20700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1513,8 +1553,8 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1522,56 +1562,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-318100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-209000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-77100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-67800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>50200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>78800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>77500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-68000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,56 +1624,59 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-74000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-23900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-18700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-22500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-18600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>60500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1748,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-322800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-135000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-53200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-49100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-62800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>72700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-128500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,56 +1810,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-322800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-135000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-53200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-49100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-62800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>72700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-128500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,40 +1934,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,56 +2120,59 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-114900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-47900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,56 +2182,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-322800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-135000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-53200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-49100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-62800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>72700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-128500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,56 +2306,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-322800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-135000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-53200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-49100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-62800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>72700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-128500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,61 +2368,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2435,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,47 +2485,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E41" s="3">
         <v>494700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>659900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1391100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1206400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>334000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>309200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>385100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>272100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>474800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>321000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,8 +2545,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,47 +2607,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1076700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>833100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>616800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>752400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>889900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>823400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>831500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>827400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>709400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>636900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>623700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,47 +2669,50 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1424000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1578100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1597100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1065300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1019000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1050700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1068700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1053100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1035500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1004100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1008700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1005600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,47 +2731,50 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E45" s="3">
         <v>267000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>191300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>118100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>142800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>98500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>109100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>113800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>316600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>758100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>106600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,47 +2793,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3344000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3416500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3281400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3191300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3120600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2373100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2310400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2383500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2278300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2504900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2703700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2056900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,47 +2855,50 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E47" s="3">
         <v>33400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>16300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2812,47 +2917,50 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1503400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1242500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>924100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>930100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1040300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>993400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1012400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1010900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>922400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>909300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>877700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,47 +2979,50 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12048000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12612100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12220300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5476700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5459500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5472400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5381400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5312400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5319600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5411000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5483600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5467200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,47 +3165,50 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E52" s="3">
         <v>127300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>471100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>264300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>197000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>81200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>120600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>132300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>122900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>103100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>162800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,47 +3289,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16988000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17692700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17237000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9876000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9727200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8985800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8823700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8856900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8747400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8956700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9211500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8577400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,47 +3401,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E57" s="3">
         <v>501000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>355900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>242500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>215000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>222600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>206100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>242900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>252100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>205200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>202700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>193900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,40 +3461,43 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E58" s="3">
         <v>554500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>553600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>25900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>24500</v>
       </c>
       <c r="I58" s="3">
         <v>24500</v>
       </c>
       <c r="J58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K58" s="3">
         <v>27100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>29000</v>
       </c>
       <c r="L58" s="3">
         <v>29000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>29000</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -3380,8 +3514,8 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3389,47 +3523,50 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1018000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1020800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>961700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>567000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>466500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>571400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>510900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>507500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>427100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>736500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1042700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>364500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,47 +3585,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2034000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2076300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1871200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>835400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>707500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>818500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>741500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>777500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>708200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>970700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1245400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>558400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,44 +3647,47 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5556000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5572400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5586500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2030400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2035600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2330500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2335600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2382000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2436600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2443300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2478500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3566,47 +3709,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1391000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1568100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1435100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>358300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>322600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>289900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>258900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>431900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>406400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>345200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>350500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>432400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,47 +3957,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8981000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9216800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8892800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3224100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3065700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3438900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3336000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3591400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3551200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3759200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4074400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>990800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,47 +4291,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-538000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-477200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-154400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>33800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>84300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>93800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>83800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16400</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
         <v>7947500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,47 +4539,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8007000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8475900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8344200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6651900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6661500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5546900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5487700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5265500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5196200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5197500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5137100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7586600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4663,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,56 +4730,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-322800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-135000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-53200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-49100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-62800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>72700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-128500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,56 +4818,57 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E83" s="3">
         <v>222200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>132300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>80900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>81500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>78700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>83100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>73700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>72700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>74300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>75200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>156100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,56 +5188,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-92900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-111700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>159300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>126300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>39600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>50100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>139500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>163900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>136900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>47000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>76500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>90600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,56 +5276,57 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-118400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-12600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,56 +5460,59 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-73300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-74300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-83000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-49000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-903800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,56 +5794,59 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-18300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4068300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>896600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-48800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>89700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-339500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-362400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>450900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-47200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-76500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>31600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>811900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5610,56 +5856,59 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E101" s="3">
         <v>19300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-21000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>15900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6900</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5669,56 +5918,59 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-165200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-731200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>184700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>872000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-76300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>96000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-376900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-257400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>613900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>57600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-60000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>79200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -752,59 +753,62 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1279000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1242000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1139700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>889600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>586300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>657700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>787000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>771300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>781600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>731100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>799300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>761100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>770200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>736200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>697100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1437600</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
@@ -814,59 +818,62 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>551000</v>
+      </c>
+      <c r="E9" s="3">
         <v>569000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>596200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>441800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>295900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>332700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>410100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>360400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>356000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>343800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>412500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>369800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>431500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>360000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>376200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>712700</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,59 +883,62 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>728000</v>
+      </c>
+      <c r="E10" s="3">
         <v>673000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>543500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>447800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>290400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>325000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>376900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>410900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>425600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>387300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>386800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>391300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>338700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>376200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>320900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>724900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,59 +975,60 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E12" s="3">
         <v>89000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>112700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>88100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>59400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>66800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>67300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>69900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>68800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>64100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>61100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>58900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>61400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>65200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>61900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>127900</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,59 +1103,62 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E14" s="3">
         <v>108000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>167300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>262200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>119400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>78600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>51600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>77200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>31800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>46800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>68000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>181600</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,59 +1168,62 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E15" s="3">
         <v>147000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>163700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>95600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>49000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>51600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>51400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>50700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>49300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>49000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>50100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>48700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>49400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>49200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>51600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>109400</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,59 +1257,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1458000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1261000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1414000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1165400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>686500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>711700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>766300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>750500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>706800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>662900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>755600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>668800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>801400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>656800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>708100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1520000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,59 +1320,62 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-274300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-275800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-54000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>74800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-31200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>79400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-82400</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1385,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,59 +1412,60 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>16600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>114900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>47900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14400</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,59 +1475,62 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E21" s="3">
         <v>183000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-35500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>97800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>84900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>148100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>140800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>92500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>151500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>35300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>151800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>66100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>88100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,52 +1540,55 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E22" s="3">
         <v>61000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>60400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>48100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>18700</v>
       </c>
       <c r="J22" s="3">
         <v>18700</v>
       </c>
       <c r="K22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="L22" s="3">
         <v>20700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1556,8 +1596,8 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1565,59 +1605,62 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-80000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-318100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-209000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-77100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-67800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>50200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>78800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-40000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>77500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-68000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1627,59 +1670,62 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-74000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-23900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-18700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-22500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-18600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>60500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,59 +1800,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-61000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-322800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-135000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-53200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-49100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-62800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>72700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-128500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,59 +1865,62 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-61000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-322800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-135000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-53200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-62800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>72700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-128500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +1930,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1963,17 +2024,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,59 +2190,62 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-16600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-114900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-47900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14400</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,59 +2255,62 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-61000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-322800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-135000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-53200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-62800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>72700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-128500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2320,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,59 +2385,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-61000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-322800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-135000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-53200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-62800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>72700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-128500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,64 +2450,67 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2520,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,50 +2572,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E41" s="3">
         <v>515000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>494700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>659900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1391100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1206400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>334000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>309200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>385100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>272100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>474800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>321000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,8 +2635,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,50 +2700,53 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1132000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1076700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>833100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>616800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>752400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>889900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>823400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>831500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>827400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>709400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>636900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>623700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2672,50 +2765,53 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1424000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1578100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1597100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1065300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1019000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1050700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1068700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1053100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1035500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1004100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1008700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1005600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,50 +2830,53 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E45" s="3">
         <v>273000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>267000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>191300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>118100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>142800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>98500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>109100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>113800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>143300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>316600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>758100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>106600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,50 +2895,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3431000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3344000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3416500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3281400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3191300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3120600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2373100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2310400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2383500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2278300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2504900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2703700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2056900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,50 +2960,53 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E47" s="3">
         <v>34000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>33400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>19600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>15300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,50 +3025,53 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1271000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1503400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1242500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>924100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>930100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1040300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>993400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1012400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1010900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>922400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>909300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>877700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,50 +3090,53 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11994000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12048000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12612100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12220300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5476700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5459500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5472400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5381400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5312400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5319600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5411000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5483600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5467200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,50 +3285,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E52" s="3">
         <v>291000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>127300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>471100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>264300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>197000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>81200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>120600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>132300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>122900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>103100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>162800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,50 +3415,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16833000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16988000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17692700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17237000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9876000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9727200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8985800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8823700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8856900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8747400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8956700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9211500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8577400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,50 +3532,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E57" s="3">
         <v>411000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>501000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>355900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>242500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>215000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>222600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>206100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>242900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>252100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>205200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>202700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>193900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,43 +3595,46 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>555000</v>
+      </c>
+      <c r="E58" s="3">
         <v>605000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>554500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>553600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>25900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>26000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>24500</v>
       </c>
       <c r="J58" s="3">
         <v>24500</v>
       </c>
       <c r="K58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="L58" s="3">
         <v>27100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>29000</v>
       </c>
       <c r="M58" s="3">
         <v>29000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>29000</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -3517,8 +3651,8 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3526,50 +3660,53 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>929000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1018000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1020800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>961700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>567000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>466500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>571400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>510900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>507500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>427100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>736500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1042700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>364500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,50 +3725,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1990000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2034000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2076300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1871200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>835400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>707500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>818500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>741500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>777500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>708200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>970700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1245400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>558400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,47 +3790,50 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5542000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5556000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5572400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5586500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2030400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2035600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2330500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2335600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2382000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2436600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2443300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2478500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3712,50 +3855,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1321000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1391000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1568100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1435100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>358300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>322600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>289900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>258900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>431900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>406400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>345200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>350500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>432400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,50 +4115,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8853000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8981000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9216800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8892800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3224100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3065700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3438900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3336000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3591400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3551200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3759200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4074400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>990800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,50 +4465,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-748000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-538000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-477200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-154400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>84300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>93800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>83800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16400</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
         <v>7947500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,50 +4725,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7980000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8007000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8475900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8344200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6651900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6661500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5546900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5487700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5265500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5196200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5197500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5137100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7586600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,64 +4855,67 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4733,59 +4925,62 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-61000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-322800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-135000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-53200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-62800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>72700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-128500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4990,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,59 +5017,60 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E83" s="3">
         <v>202000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>222200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>132300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>80900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>81500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>83400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>78700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>83100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>73700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>72700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>75300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>74300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>75200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>156100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,59 +5405,62 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E89" s="3">
         <v>22000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-92900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-111700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>159300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>126300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>50100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>139500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>163900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>136900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>47000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>76500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>90600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5253,8 +5470,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,59 +5497,60 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-118400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-12600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-60200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10000</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5339,8 +5560,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,59 +5690,62 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>10000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-73300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-74300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-83000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-49000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-903800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5525,8 +5755,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,59 +6040,62 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-18300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4068300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>896600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-48800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>89700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-339500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-362400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>450900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-47200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-76500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>31600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>811900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5859,59 +6105,62 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-25000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>19300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-21000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6900</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5921,59 +6170,62 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E102" s="3">
         <v>9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-165200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-731200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>184700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>872000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-76300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>96000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-376900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-257400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>613900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>57600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>79200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5981,6 +6233,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -756,62 +757,65 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1131000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1279000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1242000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1139700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>889600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>586300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>657700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>787000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>771300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>781600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>731100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>799300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>761100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>770200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>736200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>697100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1437600</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
@@ -821,62 +825,65 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E9" s="3">
         <v>551000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>569000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>596200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>441800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>295900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>332700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>410100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>360400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>356000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>343800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>412500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>369800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>431500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>360000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>376200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>712700</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,62 +893,65 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E10" s="3">
         <v>728000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>673000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>543500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>447800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>290400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>325000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>376900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>410900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>425600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>387300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>386800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>391300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>338700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>376200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>320900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>724900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,53 +999,53 @@
         <v>94000</v>
       </c>
       <c r="E12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F12" s="3">
         <v>89000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>112700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>88100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>59400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>66800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>67300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>69900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>68800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>64100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>61100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>58900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>61400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>65200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>61900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>127900</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,62 +1123,65 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E14" s="3">
         <v>299000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>108000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>167300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>262200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>119400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>78600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>51600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>77200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>31800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>24900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>46800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>68000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>181600</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,62 +1191,65 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E15" s="3">
         <v>129000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>147000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>163700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>95600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>49000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>51600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>51400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>50700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>49300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>49000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>50100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>48700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>49400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>49200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>51600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>109400</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,62 +1284,63 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1458000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1261000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1414000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1165400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>686500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>711700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>766300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>750500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>706800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>662900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>755600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>668800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>801400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>656800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>708100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1520000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,62 +1350,65 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-179000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-274300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-275800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-54000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>74800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>79400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-82400</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1388,8 +1418,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,62 +1446,63 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>16600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>114900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>47900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14400</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1478,62 +1512,65 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>183000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>97800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>84900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>148100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>140800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>92500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>151500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>35300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>151800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>66100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>88100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1543,8 +1580,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1552,46 +1592,46 @@
         <v>60000</v>
       </c>
       <c r="E22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F22" s="3">
         <v>61000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>60400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>18700</v>
       </c>
       <c r="K22" s="3">
         <v>18700</v>
       </c>
       <c r="L22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="M22" s="3">
         <v>20700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1599,8 +1639,8 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1608,62 +1648,65 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-236000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-80000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-318100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-209000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-77100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-67800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>78800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>77500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-68000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1716,11 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1682,53 +1728,53 @@
         <v>-26000</v>
       </c>
       <c r="E24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-74000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-23900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-18700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-22500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-18600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>60500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,62 +1852,65 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-210000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-61000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-322800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-135000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-53200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-49100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>60200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>72700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-128500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,62 +1920,65 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-210000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-61000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-322800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-135000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-53200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-49100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>72700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-128500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,8 +1988,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,17 +2088,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,62 +2260,65 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-16600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-114900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-47900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14400</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,62 +2328,65 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-210000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-61000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-322800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-135000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-53200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-49100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>72700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-128500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2396,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,62 +2464,65 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-210000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-61000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-322800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-135000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-53200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-49100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>72700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-128500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,67 +2532,70 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2523,8 +2605,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,53 +2659,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E41" s="3">
         <v>580000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>515000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>494700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>659900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1391100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1206400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>334000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>309200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>385100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>272100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>474800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>321000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,8 +2725,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,53 +2793,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1082000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1174000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1132000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1076700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>833100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>616800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>752400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>889900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>823400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>831500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>827400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>709400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>636900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>623700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,53 +2861,56 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1450000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1424000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1578100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1597100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1065300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1019000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1050700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1068700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1053100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1035500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1004100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1008700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1005600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,53 +2929,56 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E45" s="3">
         <v>227000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>273000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>267000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>191300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>142800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>98500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>109100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>113800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>143300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>316600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>758100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>106600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,53 +2997,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3160000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3431000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3344000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3416500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3281400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3191300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3120600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2373100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2310400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2383500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2278300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2504900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2703700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2056900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,53 +3065,56 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E47" s="3">
         <v>18000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>34000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>33400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>21700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>19600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>15700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,53 +3133,56 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1041000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1033000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1271000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1503400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1242500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>924100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>930100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1040300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>993400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1012400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1010900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>922400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>909300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>877700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,53 +3201,56 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12007000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11994000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12048000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12612100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12220300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5476700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5459500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5472400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5381400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5312400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5319600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5411000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5483600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5467200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,53 +3405,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E52" s="3">
         <v>357000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>291000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>127300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>471100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>264300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>197000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>81200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>120600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>132300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>122900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>103100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>162800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,53 +3541,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16565000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16833000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16988000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17692700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17237000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9876000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9727200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8985800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8823700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8856900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8747400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8956700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9211500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8577400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,53 +3663,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E57" s="3">
         <v>506000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>411000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>501000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>355900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>242500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>215000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>222600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>206100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>242900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>252100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>205200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>202700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>193900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,46 +3729,49 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E58" s="3">
         <v>555000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>605000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>554500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>553600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>25900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>26000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>24500</v>
       </c>
       <c r="K58" s="3">
         <v>24500</v>
       </c>
       <c r="L58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="M58" s="3">
         <v>27100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>29000</v>
       </c>
       <c r="N58" s="3">
         <v>29000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>29000</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3654,8 +3788,8 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3663,53 +3797,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>865000</v>
+      </c>
+      <c r="E59" s="3">
         <v>929000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1018000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1020800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>961700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>567000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>466500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>571400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>510900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>507500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>427100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>736500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1042700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>364500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,53 +3865,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1362000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1990000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2034000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2076300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1871200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>835400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>707500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>818500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>741500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>777500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>708200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>970700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1245400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>558400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,50 +3933,53 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6273000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5542000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5556000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5572400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5586500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2030400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2035600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2330500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2335600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2382000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2436600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2443300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2478500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3858,53 +4001,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1321000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1391000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1568100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1435100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>358300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>322600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>289900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>258900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>431900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>406400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>345200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>350500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>432400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,53 +4273,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8883000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8853000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8981000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9216800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8892800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3224100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3065700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3438900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3336000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3591400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3551200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3759200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4074400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>990800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,53 +4639,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-852000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-748000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-538000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-477200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-154400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>84300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>93800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>83800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16400</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>7947500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,53 +4911,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7682000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7980000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8007000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8475900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8344200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6651900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6661500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5546900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5487700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5265500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5196200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5197500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5137100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7586600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,67 +5047,70 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4928,62 +5120,65 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-210000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-61000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-322800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-135000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-53200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-49100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>72700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-128500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4993,8 +5188,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5027,53 +5226,53 @@
         <v>170000</v>
       </c>
       <c r="E83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="F83" s="3">
         <v>202000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>222200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>132300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>80900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>81500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>83400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>78700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>69300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>83100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>73700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>72700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>75300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>74300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>75200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>156100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,62 +5622,65 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E89" s="3">
         <v>149000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-92900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-111700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>159300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>126300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>50100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>139500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>163900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>136900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>47000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>76500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>90600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5473,8 +5690,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,62 +5718,63 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-118400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-12600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-60200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5563,8 +5784,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,62 +5920,65 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-441000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-73300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-74300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-83000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-49000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-903800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5758,8 +5988,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,62 +6286,65 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-67000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4068300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>896600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>89700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-339500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-362400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>450900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-47200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-76500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>31600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>811900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6108,62 +6354,65 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>19300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>9100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-21000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>20500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6900</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6173,62 +6422,65 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E102" s="3">
         <v>65000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-165200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-731200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>184700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>872000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-76300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>96000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-376900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-257400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>613900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>57600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-60000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>79200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6236,6 +6488,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,92 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
@@ -760,65 +760,68 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1113000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1131000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1279000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1242000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1139700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>889600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>586300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>657700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>787000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>771300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>781600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>731100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>799300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>761100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>770200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>736200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>697100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1437600</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,65 +831,68 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E9" s="3">
         <v>502000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>551000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>569000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>596200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>441800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>295900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>332700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>410100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>360400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>356000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>343800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>412500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>369800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>431500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>360000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>376200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>712700</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
@@ -896,65 +902,68 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E10" s="3">
         <v>629000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>728000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>673000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>543500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>447800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>290400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>325000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>376900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>410900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>425600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>387300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>386800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>391300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>338700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>376200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>320900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>724900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,8 +973,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,65 +1002,66 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>94000</v>
+        <v>92000</v>
       </c>
       <c r="E12" s="3">
         <v>94000</v>
       </c>
       <c r="F12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="G12" s="3">
         <v>89000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>112700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>88100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>59400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>66800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>67300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>69900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>68800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>64100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>61100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>58900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>61400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>65200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>61900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>127900</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,65 +1142,68 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E14" s="3">
         <v>111000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>299000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>108000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>167300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>262200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>119400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>78600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>51600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>77200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>31800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>24900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>46800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>68000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>23700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>181600</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,65 +1213,68 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E15" s="3">
         <v>141000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>129000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>147000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>163700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>95600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>49000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>51600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>51400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>50700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>49300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>49000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>50100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>48700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>49400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>49200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>51600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>109400</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,65 +1310,66 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1182000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1190000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1458000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1261000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1414000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1165400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>686500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>711700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>766300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>750500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>706800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>662900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>755600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>668800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>801400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>656800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>708100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1520000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,65 +1379,68 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-59000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-179000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-274300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-275800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-54000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>43700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>92300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-31200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>79400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-82400</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1450,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,65 +1479,66 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>16600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>114900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>47900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14400</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1515,65 +1548,68 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E21" s="3">
         <v>100000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>183000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-28600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>30200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>97800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>84900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>148100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>140800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>92500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>151500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>35300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>151800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>66100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>88100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,58 +1619,61 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="E22" s="3">
         <v>60000</v>
       </c>
       <c r="F22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G22" s="3">
         <v>61000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>60400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>48100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>18700</v>
       </c>
       <c r="L22" s="3">
         <v>18700</v>
       </c>
       <c r="M22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="N22" s="3">
         <v>20700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1642,8 +1681,8 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1651,65 +1690,68 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-130000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-236000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-80000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-318100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-209000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-77100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-67800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>78800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-40000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>77500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-68000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1719,65 +1761,68 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-26000</v>
+        <v>-24000</v>
       </c>
       <c r="E24" s="3">
         <v>-26000</v>
       </c>
       <c r="F24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="G24" s="3">
         <v>-19000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-74000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-23900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-18700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-22500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-18600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>60500</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1787,8 +1832,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,65 +1903,68 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-104000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-210000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-322800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-135000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-53200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-49100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>35900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-62800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>72700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-128500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1923,65 +1974,68 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-104000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-210000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-61000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-322800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-135000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-53200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-49100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-62800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>72700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-128500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,8 +2045,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2091,17 +2151,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,65 +2329,68 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-16600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-114900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-47900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14400</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,65 +2400,68 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-104000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-210000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-61000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-322800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-135000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-53200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-49100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-62800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>72700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-128500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2399,8 +2471,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,65 +2542,68 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-104000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-210000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-61000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-322800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-135000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-53200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-49100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-62800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>72700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-128500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2535,70 +2613,73 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2608,8 +2689,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,56 +2745,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>638000</v>
+      </c>
+      <c r="E41" s="3">
         <v>453000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>580000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>515000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>494700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>659900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1391100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1206400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>334000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>309200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>385100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>272100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>474800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>321000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,8 +2814,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,56 +2885,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1082000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1174000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1132000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1076700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>833100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>616800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>752400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>889900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>823400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>831500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>827400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>709400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>636900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>623700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,56 +2956,59 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1383000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1450000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1424000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1578100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1597100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1065300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1019000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1050700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1068700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1053100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1035500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1004100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1008700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1005600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,56 +3027,59 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E45" s="3">
         <v>242000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>227000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>273000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>267000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>191300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>142800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>98500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>109100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>113800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>143300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>316600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>758100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>106600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,56 +3098,59 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3276000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3160000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3431000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3344000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3416500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3281400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3191300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3120600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2373100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2310400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2383500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2278300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2504900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2703700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2056900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,56 +3169,59 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E47" s="3">
         <v>21000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>34000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>33400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>15300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3136,56 +3240,59 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1061000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1041000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1033000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1271000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1503400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1242500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>924100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>930100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1040300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>993400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1012400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1010900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>922400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>909300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>877700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,56 +3311,59 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11759000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12007000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11994000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12048000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12612100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12220300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5476700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5459500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5472400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5381400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5312400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5319600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5411000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5483600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5467200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +3382,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,56 +3524,59 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E52" s="3">
         <v>336000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>357000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>291000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>127300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>471100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>264300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>197000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>81200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>120600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>132300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>122900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>103100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>162800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,56 +3666,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16483000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16565000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16833000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16988000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17692700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17237000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9876000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9727200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8985800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8823700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8856900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8747400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8956700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9211500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8577400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,56 +3793,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E57" s="3">
         <v>436000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>506000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>411000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>501000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>355900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>242500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>215000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>222600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>206100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>242900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>252100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>205200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>202700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>193900</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,49 +3862,52 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E58" s="3">
         <v>61000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>555000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>605000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>554500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>553600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>26000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>24500</v>
       </c>
       <c r="L58" s="3">
         <v>24500</v>
       </c>
       <c r="M58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="N58" s="3">
         <v>27100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>29000</v>
       </c>
       <c r="O58" s="3">
         <v>29000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>29000</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3791,8 +3924,8 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -3800,56 +3933,59 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>931000</v>
+      </c>
+      <c r="E59" s="3">
         <v>865000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>929000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1018000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1020800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>961700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>567000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>466500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>571400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>510900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>507500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>427100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>736500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1042700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>364500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,56 +4004,59 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1643000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1362000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1990000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2034000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2076300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1871200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>835400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>707500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>818500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>741500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>777500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>708200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>970700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1245400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>558400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,53 +4075,56 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6025000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6273000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5542000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5556000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5572400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5586500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2030400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2035600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2330500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2335600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2382000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2436600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2443300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2478500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4004,56 +4146,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1277000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1248000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1321000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1391000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1568100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1435100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>358300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>322600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>289900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>258900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>431900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>406400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>345200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>350500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>432400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,56 +4430,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8945000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8883000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8853000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8981000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9216800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8892800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3224100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3065700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3438900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3336000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3591400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3551200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3759200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4074400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>990800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,56 +4812,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-949000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-852000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-748000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-538000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-477200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-154400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>33800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>84300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>93800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>83800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>47900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16400</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
       <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
         <v>7947500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,56 +5096,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7538000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7682000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7980000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8007000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8475900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8344200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6651900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6661500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5546900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5487700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5265500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5196200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5197500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5137100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7586600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,70 +5238,73 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5123,65 +5314,68 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-104000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-210000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-61000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-322800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-135000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-53200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-49100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-62800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>72700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-128500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5191,8 +5385,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,65 +5414,66 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>170000</v>
+        <v>174000</v>
       </c>
       <c r="E83" s="3">
         <v>170000</v>
       </c>
       <c r="F83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="G83" s="3">
         <v>202000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>222200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>132300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>80900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>81500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>83400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>78700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>69300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>83100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>73700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>72700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>75300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>74300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>75200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>156100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5285,8 +5483,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,65 +5838,68 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E89" s="3">
         <v>89000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>149000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-92900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-111700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>159300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>126300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>39600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>139500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>163900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>136900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>47000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>76500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>90600</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5693,8 +5909,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,65 +5938,66 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-118400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-60200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10000</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5787,8 +6007,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,65 +6149,68 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-441000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-73300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-74300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-83000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-49000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-48100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-903800</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5991,8 +6220,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,65 +6531,68 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E100" s="3">
         <v>231000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-67000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4068300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>896600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-48800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>89700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-339500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-362400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>450900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-47200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-76500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>31600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>811900</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6357,65 +6602,68 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-25000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>19300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>9100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-21000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6900</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6425,65 +6673,68 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-127000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>65000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-165200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-731200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>184700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>872000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-76300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>96000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-376900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-257400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>613900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>57600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-60000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>79200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6491,6 +6742,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
@@ -763,68 +764,71 @@
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1225000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1113000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1131000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1279000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1242000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1139700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>889600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>586300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>657700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>787000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>771300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>781600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>731100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>799300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>761100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>770200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>736200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>697100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1437600</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,68 +838,71 @@
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E9" s="3">
         <v>512000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>502000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>551000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>569000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>596200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>441800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>295900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>332700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>410100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>360400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>356000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>343800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>412500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>369800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>431500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>360000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>376200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>712700</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
@@ -905,68 +912,71 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>716000</v>
+      </c>
+      <c r="E10" s="3">
         <v>601000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>629000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>728000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>673000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>543500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>447800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>290400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>325000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>376900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>410900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>425600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>387300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>386800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>391300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>338700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>376200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>320900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>724900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,8 +986,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,68 +1016,69 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E12" s="3">
         <v>92000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>94000</v>
       </c>
       <c r="F12" s="3">
         <v>94000</v>
       </c>
       <c r="G12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="H12" s="3">
         <v>89000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>112700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>88100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>59400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>66800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>67300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>69900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>68800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>64100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>61100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>58900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>61400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>65200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>61900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>127900</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,68 +1162,71 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E14" s="3">
         <v>107000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>111000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>299000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>108000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>167300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>262200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>119400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>78600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>51600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>77200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>31800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>24900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>46800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>68000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>23700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>181600</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,68 +1236,71 @@
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E15" s="3">
         <v>139000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>141000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>129000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>147000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>163700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>95600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>49000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>51600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>51400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>50700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>49300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>49000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>50100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>48700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>49400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>49200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>51600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>109400</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,68 +1337,69 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1182000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1190000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1458000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1261000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1414000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1165400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>686500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>711700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>766300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>750500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>706800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>662900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>755600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>668800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>801400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>656800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>708100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1520000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,68 +1409,71 @@
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-69000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-59000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-179000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-274300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-275800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-54000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>92300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-31200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>79400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-82400</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1453,8 +1483,11 @@
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,68 +1513,69 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>16600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>114900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>47900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14400</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,68 +1585,71 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E21" s="3">
         <v>108000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>183000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-35500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-28600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>30200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>97800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>84900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>148100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>140800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>92500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>151500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>35300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>151800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>66100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>88100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1622,61 +1659,64 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E22" s="3">
         <v>55000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>60000</v>
       </c>
       <c r="F22" s="3">
         <v>60000</v>
       </c>
       <c r="G22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="H22" s="3">
         <v>61000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>60400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>18700</v>
       </c>
       <c r="M22" s="3">
         <v>18700</v>
       </c>
       <c r="N22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="O22" s="3">
         <v>20700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1684,8 +1724,8 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1693,68 +1733,71 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-121000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-130000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-236000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-80000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-318100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-209000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-77100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-67800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>78800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-40000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>77500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-68000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,68 +1807,71 @@
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-24000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-26000</v>
       </c>
       <c r="F24" s="3">
         <v>-26000</v>
       </c>
       <c r="G24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="H24" s="3">
         <v>-19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-74000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-23900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-18700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-22500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>60500</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1835,8 +1881,11 @@
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,68 +1955,71 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-97000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-104000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-210000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-61000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-322800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-135000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-53200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-49100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>31500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-62800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>72700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-20700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-128500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1977,68 +2029,71 @@
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-97000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-104000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-210000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-61000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-322800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-135000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-53200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-49100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>31500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-62800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>72700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-20700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-128500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2103,11 @@
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2154,17 +2215,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,68 +2399,71 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-16600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-114900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-47900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14400</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2403,68 +2473,71 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-97000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-104000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-210000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-61000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-322800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-135000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-53200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-49100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-62800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>72700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-128500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2547,11 @@
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,68 +2621,71 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-97000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-104000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-210000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-61000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-322800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-135000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-53200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-49100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-62800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>72700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-128500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,73 +2695,76 @@
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2692,8 +2774,11 @@
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,59 +2832,60 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E41" s="3">
         <v>638000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>453000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>580000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>515000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>494700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>659900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1391100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1206400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>334000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>309200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>385100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>272100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>474800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>321000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2904,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,59 +2978,62 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1192000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1028000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1082000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1174000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1132000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1076700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>833100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>616800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>752400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>889900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>823400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>831500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>827400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>709400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>636900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>623700</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2959,59 +3052,62 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1373000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1383000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1450000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1424000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1578100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1597100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1065300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1019000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1050700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1068700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1053100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1035500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1004100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1008700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1005600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,59 +3126,62 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E45" s="3">
         <v>237000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>242000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>227000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>273000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>267000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>191300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>118100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>142800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>98500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>109100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>113800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>143300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>316600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>758100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>106600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,59 +3200,62 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3194000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3276000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3160000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3431000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3344000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3416500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3281400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3191300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3120600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2373100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2310400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2383500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2278300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2504900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2703700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2056900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,59 +3274,62 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E47" s="3">
         <v>22000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>34000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>33400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>15700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>15300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>14900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3243,59 +3348,62 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>987000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1061000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1041000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1033000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1271000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1503400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1242500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>924100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>930100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1040300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>993400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1012400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1010900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>922400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>909300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>877700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3314,59 +3422,62 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11511000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11759000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12007000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11994000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12048000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12612100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12220300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5476700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5459500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5472400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5381400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5312400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5319600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5411000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5483600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5467200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3385,8 +3496,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,59 +3644,62 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E52" s="3">
         <v>365000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>336000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>357000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>291000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>127300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>471100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>264300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>197000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>81200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>120600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>132300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>122900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>103100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>162800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3718,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,59 +3792,62 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16251000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16483000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16565000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16833000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16988000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17692700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17237000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9876000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9727200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8985800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8823700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8856900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8747400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8956700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9211500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8577400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3740,8 +3866,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,59 +3924,60 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E57" s="3">
         <v>418000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>436000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>506000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>411000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>501000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>355900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>242500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>215000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>222600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>206100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>242900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>252100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>205200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>202700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>193900</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,52 +3996,55 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E58" s="3">
         <v>294000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>61000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>555000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>605000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>554500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>553600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>24500</v>
       </c>
       <c r="M58" s="3">
         <v>24500</v>
       </c>
       <c r="N58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="O58" s="3">
         <v>27100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>29000</v>
       </c>
       <c r="P58" s="3">
         <v>29000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>29000</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3927,8 +4061,8 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -3936,59 +4070,62 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>844000</v>
+      </c>
+      <c r="E59" s="3">
         <v>931000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>865000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>929000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1018000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1020800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>961700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>567000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>466500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>571400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>510900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>507500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>427100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>736500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1042700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>364500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4007,59 +4144,62 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1643000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1362000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1990000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2034000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2076300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1871200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>835400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>707500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>818500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>741500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>777500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>708200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>970700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1245400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>558400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4078,56 +4218,59 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6073000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6025000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6273000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5542000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5556000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5572400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5586500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2030400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2035600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2330500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2335600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2382000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2436600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2443300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2478500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4149,59 +4292,62 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1259000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1277000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1248000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1321000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1391000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1568100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1435100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>358300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>322600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>289900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>258900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>431900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>406400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>345200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>350500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>432400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4366,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,59 +4588,62 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8639000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8945000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8883000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8853000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8981000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9216800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8892800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3224100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3065700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3438900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3336000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3591400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3551200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3759200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4074400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>990800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4504,8 +4662,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,59 +4986,62 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-901000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-949000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-852000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-748000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-538000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-477200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-154400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>84300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>93800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>83800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16400</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
       <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
         <v>7947500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4886,8 +5060,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,59 +5282,62 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7612000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7538000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7682000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7980000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8007000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8475900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8344200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6651900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6661500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5546900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5487700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5265500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5196200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5197500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5137100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7586600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5170,8 +5356,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,73 +5430,76 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5317,68 +5509,71 @@
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-97000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-104000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-210000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-61000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-322800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-135000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-53200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-49100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-62800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>72700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-128500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5388,8 +5583,11 @@
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,68 +5613,69 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E83" s="3">
         <v>174000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>170000</v>
       </c>
       <c r="F83" s="3">
         <v>170000</v>
       </c>
       <c r="G83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="H83" s="3">
         <v>202000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>222200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>132300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>80900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>81500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>83400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>78700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>69300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>83100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>73700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>72700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>75300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>74300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>75200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>156100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5486,8 +5685,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,68 +6055,71 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E89" s="3">
         <v>223000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>89000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>149000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-92900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-111700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>159300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>126300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>139500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>163900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>136900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>47000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>76500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>90600</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5912,8 +6129,11 @@
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,68 +6159,69 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-66000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-118400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-12600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10000</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6010,8 +6231,11 @@
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,68 +6379,71 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-74000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-441000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-73300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-74300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-83000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-49000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-34400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-903800</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6223,8 +6453,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,68 +6777,71 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="E100" s="3">
         <v>44000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>231000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-67000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4068300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>896600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-48800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>89700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-339500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-362400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>450900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-47200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-76500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>31600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>811900</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6605,68 +6851,71 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-25000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>19300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>9100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-21000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6900</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6676,68 +6925,71 @@
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-296000</v>
+      </c>
+      <c r="E102" s="3">
         <v>185000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-127000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>65000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-165200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-731200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>184700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>872000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-76300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>96000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-376900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-257400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>613900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>57600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-60000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>79200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6745,6 +6997,9 @@
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
@@ -767,71 +768,74 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1225000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1113000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1131000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1279000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1242000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1139700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>889600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>586300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>657700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>787000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>771300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>781600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>731100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>799300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>761100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>770200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>736200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>697100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1437600</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
@@ -841,71 +845,74 @@
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E9" s="3">
         <v>509000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>512000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>502000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>551000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>569000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>596200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>441800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>295900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>332700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>410100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>360400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>356000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>343800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>412500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>369800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>431500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>360000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>376200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>712700</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,71 +922,74 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>693000</v>
+      </c>
+      <c r="E10" s="3">
         <v>716000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>601000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>629000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>728000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>673000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>543500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>447800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>290400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>325000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>376900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>410900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>425600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>387300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>386800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>391300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>338700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>376200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>320900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>724900</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +999,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,71 +1030,72 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E12" s="3">
         <v>81000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>92000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>94000</v>
       </c>
       <c r="G12" s="3">
         <v>94000</v>
       </c>
       <c r="H12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="I12" s="3">
         <v>89000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>112700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>88100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>59400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>66800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>67300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>69900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>68800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>64100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>61100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>58900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>61400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>65200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>61900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>127900</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1105,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,71 +1182,74 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E14" s="3">
         <v>46000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>107000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>111000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>299000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>108000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>167300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>262200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>119400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>78600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>51600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>77200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>31800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>24900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>46800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>68000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>23700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>181600</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,71 +1259,74 @@
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E15" s="3">
         <v>137000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>139000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>141000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>129000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>147000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>163700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>95600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>49000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>51600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>51400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>50700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>49300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>49000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>50100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>48700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>49400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>49200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>51600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>109400</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1313,8 +1336,11 @@
       <c r="Z15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,71 +1364,72 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1093000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1182000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1190000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1458000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1261000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1414000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1165400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>686500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>711700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>766300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>750500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>706800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>662900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>755600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>668800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>801400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>656800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>708100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1520000</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,71 +1439,74 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E18" s="3">
         <v>132000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-69000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-59000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-179000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-274300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-275800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-54000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>92300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-31200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>79400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-82400</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,8 +1516,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,71 +1547,72 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>16600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>114900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14400</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,71 +1622,74 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E21" s="3">
         <v>299000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>108000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>183000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-28600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>97800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>84900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>148100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>140800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>92500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>151500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>35300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>151800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>66100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>88100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,64 +1699,67 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E22" s="3">
         <v>52000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>55000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>60000</v>
       </c>
       <c r="G22" s="3">
         <v>60000</v>
       </c>
       <c r="H22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I22" s="3">
         <v>61000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>48100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>18700</v>
       </c>
       <c r="N22" s="3">
         <v>18700</v>
       </c>
       <c r="O22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="P22" s="3">
         <v>20700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
@@ -1727,8 +1767,8 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1736,71 +1776,74 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E23" s="3">
         <v>71000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-121000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-130000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-236000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-80000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-318100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-209000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-77100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-67800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>50200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>78800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-40000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>77500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-68000</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,71 +1853,74 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>23000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-24000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-26000</v>
       </c>
       <c r="G24" s="3">
         <v>-26000</v>
       </c>
       <c r="H24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-19000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-74000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-23900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-18700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-22500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-18600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>60500</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1884,8 +1930,11 @@
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,71 +2007,74 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E26" s="3">
         <v>48000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-97000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-104000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-210000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-61000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-322800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-135000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-53200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-49100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>31500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-62800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>72700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-20700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-128500</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2032,71 +2084,74 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E27" s="3">
         <v>48000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-97000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-104000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-210000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-61000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-322800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-135000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-53200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-49100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>31500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-62800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>72700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-20700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-128500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2106,8 +2161,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2218,17 +2279,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,71 +2469,74 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-16600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-114900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14400</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,71 +2546,74 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E33" s="3">
         <v>48000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-97000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-104000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-210000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-61000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-322800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-135000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-53200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-49100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-62800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>72700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-20700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-128500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,8 +2623,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,71 +2700,74 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E35" s="3">
         <v>48000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-97000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-104000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-210000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-61000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-322800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-135000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-53200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-49100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-62800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>72700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-20700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-128500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2698,76 +2777,79 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2777,8 +2859,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,62 +2919,63 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E41" s="3">
         <v>342000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>638000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>453000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>580000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>515000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>494700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>659900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1391100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1206400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>334000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>309200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>385100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>272100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>474800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>321000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +2994,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,62 +3071,65 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1192000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1028000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1082000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1174000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1132000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1076700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>833100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>616800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>752400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>889900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>823400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>831500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>827400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>709400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>636900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>623700</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,62 +3148,65 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1345000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1373000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1383000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1450000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1424000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1578100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1597100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1065300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1019000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1050700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1068700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1053100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1035500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1004100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1008700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1005600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3129,62 +3225,65 @@
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E45" s="3">
         <v>315000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>237000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>242000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>227000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>273000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>267000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>191300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>142800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>98500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>109100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>113800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>143300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>316600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>758100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>106600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,62 +3302,65 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3307000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3194000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3276000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3160000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3431000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3344000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3416500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3281400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3191300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3120600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2373100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2310400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2383500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2278300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2504900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2703700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2056900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,62 +3379,65 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E47" s="3">
         <v>23000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>22000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>33400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>21700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>15700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>15300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>14900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3351,62 +3456,65 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>961000</v>
+      </c>
+      <c r="E48" s="3">
         <v>987000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1061000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1041000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1033000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1271000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1503400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1242500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>924100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>930100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1040300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>993400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1012400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1010900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>922400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>909300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>877700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3425,62 +3533,65 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10957000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11511000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11759000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12007000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11994000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12048000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12612100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12220300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5476700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5459500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5472400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5381400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5312400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5319600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5411000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5483600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5467200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3499,8 +3610,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,62 +3764,65 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E52" s="3">
         <v>536000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>365000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>336000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>357000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>291000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>127300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>471100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>264300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>197000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>81200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>120600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>132300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>122900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>103100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>162800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3721,8 +3841,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,62 +3918,65 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15601000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16251000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16483000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16565000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16833000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16988000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17692700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17237000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9876000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9727200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8985800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8823700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8856900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8747400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8956700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9211500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8577400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +3995,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,62 +4055,63 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E57" s="3">
         <v>402000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>418000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>436000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>506000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>411000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>501000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>355900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>242500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>215000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>222600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>206100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>242900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>252100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>205200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>202700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>193900</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,55 +4130,58 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E58" s="3">
         <v>61000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>294000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>61000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>555000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>605000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>554500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>553600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>24500</v>
       </c>
       <c r="N58" s="3">
         <v>24500</v>
       </c>
       <c r="O58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="P58" s="3">
         <v>27100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>29000</v>
       </c>
       <c r="Q58" s="3">
         <v>29000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3">
+        <v>29000</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
@@ -4064,8 +4198,8 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4073,62 +4207,65 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E59" s="3">
         <v>844000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>931000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>865000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>929000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1018000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1020800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>961700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>567000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>466500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>571400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>510900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>507500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>427100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>736500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1042700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>364500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4147,62 +4284,65 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1307000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1643000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1362000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1990000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2034000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2076300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1871200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>835400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>707500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>818500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>741500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>777500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>708200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>970700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1245400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>558400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,59 +4361,62 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6007000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6073000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6025000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6273000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5542000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5556000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5572400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5586500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2030400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2035600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2330500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2335600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2382000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2436600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2443300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2478500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4295,62 +4438,65 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1259000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1277000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1248000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1321000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1391000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1568100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1435100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>358300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>322600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>289900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>258900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>431900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>406400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>345200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>350500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>432400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4369,8 +4515,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,62 +4746,65 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8461000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8639000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8945000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8883000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8853000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8981000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9216800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8892800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3224100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3065700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3438900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3336000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3591400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3551200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3759200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4074400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>990800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4665,8 +4823,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,62 +5160,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-923000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-901000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-949000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-852000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-748000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-538000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-477200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-154400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>84300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>93800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>83800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16400</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
       <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
         <v>7947500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5063,8 +5237,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,62 +5468,65 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7140000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7612000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7538000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7682000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7980000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8007000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8475900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8344200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6651900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6661500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5546900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5487700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5265500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5196200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5197500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5137100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7586600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5359,8 +5545,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,76 +5622,79 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5512,71 +5704,74 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E81" s="3">
         <v>48000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-97000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-104000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-210000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-61000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-322800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-135000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-53200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-49100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-62800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>72700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-20700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-128500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5586,8 +5781,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,71 +5812,72 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E83" s="3">
         <v>176000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>174000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>170000</v>
       </c>
       <c r="G83" s="3">
         <v>170000</v>
       </c>
       <c r="H83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="I83" s="3">
         <v>202000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>222200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>132300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>80900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>81500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>83400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>69300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>83100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>73700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>72700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>75300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>74300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>75200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>156100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5688,8 +5887,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,71 +6272,74 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-62000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>223000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>89000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>149000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-92900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-111700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>159300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>126300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>50100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>139500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>163900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>136900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>47000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>76500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>90600</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6132,8 +6349,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,71 +6380,72 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-66000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-118400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-12600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10000</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6234,8 +6455,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,71 +6609,74 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-74000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-441000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-73300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-74300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-83000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-49000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-23100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-34400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-903800</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6456,8 +6686,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,71 +7023,74 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>44000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>231000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-67000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4068300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>896600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-48800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>89700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-339500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-362400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>450900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-47200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-76500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>31600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>811900</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6854,71 +7100,74 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-25000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>19300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>9100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-21000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6900</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6928,71 +7177,74 @@
       <c r="Z101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-296000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>185000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-127000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>65000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-165200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-731200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>184700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>872000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-76300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>96000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-376900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-257400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>613900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>57600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-60000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>79200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5600</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7000,6 +7252,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
@@ -771,74 +772,77 @@
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1177000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1225000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1113000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1131000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1279000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1242000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1139700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>889600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>586300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>657700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>787000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>771300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>781600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>731100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>799300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>761100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>770200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>736200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>697100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1437600</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,74 +852,77 @@
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E9" s="3">
         <v>484000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>509000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>512000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>502000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>551000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>569000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>596200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>441800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>295900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>332700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>410100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>360400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>356000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>343800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>412500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>369800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>431500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>360000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>376200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>712700</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,74 +932,77 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>556000</v>
+      </c>
+      <c r="E10" s="3">
         <v>693000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>716000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>601000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>629000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>728000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>673000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>543500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>447800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>290400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>325000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>376900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>410900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>425600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>387300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>386800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>391300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>338700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>376200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>320900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>724900</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1012,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,74 +1044,75 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E12" s="3">
         <v>82000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>81000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>92000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>94000</v>
       </c>
       <c r="H12" s="3">
         <v>94000</v>
       </c>
       <c r="I12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="J12" s="3">
         <v>89000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>112700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>88100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>59400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>66800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>67300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>69900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>68800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>64100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>61100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>58900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>61400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>65200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>61900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>127900</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,74 +1202,77 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E14" s="3">
         <v>86000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>46000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>107000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>111000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>299000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>108000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>167300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>262200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>119400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>78600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>51600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>77200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>31800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>24900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>46800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>68000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>23700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>181600</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,74 +1282,77 @@
       <c r="AA14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E15" s="3">
         <v>133000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>137000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>139000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>141000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>129000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>147000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>163700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>95600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>49000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>51600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>51400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>50700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>49300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>49000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>50100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>48700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>49400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>49200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>51600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>109400</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1339,8 +1362,11 @@
       <c r="AA15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,74 +1391,75 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1128000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1093000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1182000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1190000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1458000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1261000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1414000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1165400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>686500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>711700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>766300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>750500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>706800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>662900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>755600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>668800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>801400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>656800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>708100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1520000</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,74 +1469,77 @@
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E18" s="3">
         <v>49000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>132000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-69000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-59000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-179000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-274300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-275800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-54000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>92300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-31200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>79400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-82400</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1519,8 +1549,11 @@
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,74 +1581,75 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-8000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>16600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>114900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-13500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14400</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1625,74 +1659,77 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E21" s="3">
         <v>220000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>299000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>108000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>183000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-28600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>97800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>84900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>148100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>140800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>92500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>151500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>35300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>151800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>66100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>88100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,67 +1739,70 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E22" s="3">
         <v>67000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>52000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>55000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>60000</v>
       </c>
       <c r="H22" s="3">
         <v>60000</v>
       </c>
       <c r="I22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="J22" s="3">
         <v>61000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>48100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>18700</v>
       </c>
       <c r="O22" s="3">
         <v>18700</v>
       </c>
       <c r="P22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="Q22" s="3">
         <v>20700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1770,8 +1810,8 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1779,74 +1819,77 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>71000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-121000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-130000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-236000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-80000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-318100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-209000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-77100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-67800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>50200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>78800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-40000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>77500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-68000</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1856,74 +1899,77 @@
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-24000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-26000</v>
       </c>
       <c r="H24" s="3">
         <v>-26000</v>
       </c>
       <c r="I24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-19000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-74000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-23900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-18700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-22500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-18600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>60500</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,8 +1979,11 @@
       <c r="AA24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,74 +2059,77 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-22000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-97000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-104000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-210000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-61000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-322800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-135000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-53200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-49100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>35900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-62800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>72700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-128500</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,74 +2139,77 @@
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-97000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-104000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-210000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-61000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-322800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-135000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-53200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-49100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-62800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>72700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-128500</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,8 +2219,11 @@
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2282,17 +2343,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
@@ -2318,8 +2379,11 @@
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,74 +2539,77 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-114900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>13500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14400</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,74 +2619,77 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>48000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-97000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-104000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-210000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-61000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-322800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-135000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-53200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-49100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-62800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>72700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-20700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-128500</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2626,8 +2699,11 @@
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,74 +2779,77 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>48000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-97000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-104000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-210000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-61000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-322800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-135000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-53200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-49100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-62800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>72700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-20700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-128500</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,79 +2859,82 @@
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2944,11 @@
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,65 +3006,66 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E41" s="3">
         <v>507000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>342000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>638000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>453000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>580000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>515000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>494700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>659900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1391100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1206400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>334000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>309200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>385100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>272100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>474800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>321000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2997,8 +3084,11 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3074,65 +3164,68 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1128000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1192000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1028000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1082000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1174000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1132000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1076700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>833100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>616800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>752400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>889900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>823400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>831500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>827400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>709400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>636900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>623700</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3151,65 +3244,68 @@
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1340000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1334000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1345000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1373000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1383000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1450000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1424000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1578100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1597100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1065300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1019000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1050700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1068700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1053100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1035500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1004100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1008700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1005600</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3228,65 +3324,68 @@
       <c r="AA44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E45" s="3">
         <v>338000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>315000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>237000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>242000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>227000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>273000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>267000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>191300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>142800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>98500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>109100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>113800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>143300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>316600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>758100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>106600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3305,65 +3404,68 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3154000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3307000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3194000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3276000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3160000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3431000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3344000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3416500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3281400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3191300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3120600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2373100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2310400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2383500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2278300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2504900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2703700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2056900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,65 +3484,68 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E47" s="3">
         <v>31000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>21000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>33400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>16300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>15700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>14900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12800</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3459,65 +3564,68 @@
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E48" s="3">
         <v>961000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>987000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1061000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1041000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1033000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1271000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1503400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1242500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>924100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>930100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1040300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>993400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1012400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1010900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>922400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>909300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>877700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3536,65 +3644,68 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10482000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10957000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11511000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11759000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12007000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11994000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12048000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12612100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12220300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5476700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5459500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5472400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5381400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5312400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5319600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5411000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5483600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5467200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3724,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,65 +3884,68 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E52" s="3">
         <v>345000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>536000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>365000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>336000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>357000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>291000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>127300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>471100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>264300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>197000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>81200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>120600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>132300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>122900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>103100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>100000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>162800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3844,8 +3964,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,65 +4044,68 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14948000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15601000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16251000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16483000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16565000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16833000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16988000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17692700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17237000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9876000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9727200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8985800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8823700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8856900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8747400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8956700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9211500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8577400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4124,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,65 +4186,66 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E57" s="3">
         <v>386000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>402000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>418000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>436000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>506000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>411000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>501000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>355900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>242500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>215000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>222600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>206100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>242900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>252100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>205200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>202700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>193900</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4133,58 +4264,61 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E58" s="3">
         <v>56000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>61000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>294000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>61000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>555000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>605000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>554500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>553600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>24500</v>
       </c>
       <c r="O58" s="3">
         <v>24500</v>
       </c>
       <c r="P58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>27100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>29000</v>
       </c>
       <c r="R58" s="3">
         <v>29000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
+      <c r="S58" s="3">
+        <v>29000</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
@@ -4201,8 +4335,8 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4210,65 +4344,68 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>869000</v>
+      </c>
+      <c r="E59" s="3">
         <v>896000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>844000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>931000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>865000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>929000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1018000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1020800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>961700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>567000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>466500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>571400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>510900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>507500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>427100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>736500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1042700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>364500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4287,65 +4424,68 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1338000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1307000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1643000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1362000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1990000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2034000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2076300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1871200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>835400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>707500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>818500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>741500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>777500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>708200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>970700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1245400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>558400</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4364,62 +4504,65 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5507000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6007000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6073000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6025000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6273000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5542000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5556000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5572400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5586500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2030400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2035600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2330500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2335600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2382000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2436600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2443300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2478500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4441,65 +4584,68 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1116000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1259000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1277000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1248000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1321000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1391000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1568100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1435100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>358300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>322600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>289900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>258900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>431900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>406400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>345200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>350500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>432400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4518,8 +4664,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,65 +4904,68 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8203000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8461000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8639000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8945000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8883000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8853000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8981000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9216800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8892800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3224100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3065700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3438900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3336000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3591400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3551200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3759200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4074400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>990800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +4984,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,65 +5334,68 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-972000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-923000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-901000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-949000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-852000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-748000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-538000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-477200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-154400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>84300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>93800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>83800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16400</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
       <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
         <v>7947500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5240,8 +5414,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,65 +5654,68 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6745000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7140000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7612000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7538000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7682000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7980000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8007000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8475900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8344200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6651900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6661500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5546900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5487700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5265500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5196200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5197500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5137100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7586600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5548,8 +5734,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,79 +5814,82 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5707,74 +5899,77 @@
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>48000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-97000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-104000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-210000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-61000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-322800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-135000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-53200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-49100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-62800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>72700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-20700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-128500</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5784,8 +5979,11 @@
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,74 +6011,75 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E83" s="3">
         <v>171000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>176000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>174000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>170000</v>
       </c>
       <c r="H83" s="3">
         <v>170000</v>
       </c>
       <c r="I83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="J83" s="3">
         <v>202000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>222200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>132300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>80900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>81500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>83400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>78700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>69300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>83100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>73700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>72700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>75300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>74300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>75200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>156100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5890,8 +6089,11 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,74 +6489,77 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E89" s="3">
         <v>312000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-62000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>223000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>89000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>149000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-92900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-111700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>159300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>126300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>139500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>163900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>136900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>47000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>76500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>90600</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6352,8 +6569,11 @@
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,8 +6601,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6390,65 +6611,65 @@
         <v>-26000</v>
       </c>
       <c r="E91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-66000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-118400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-12600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10000</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6458,8 +6679,11 @@
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,8 +6839,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6621,65 +6851,65 @@
         <v>-37000</v>
       </c>
       <c r="E94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-29000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-74000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-441000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-73300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-74300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-83000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-48100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-23100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-34400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-903800</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6689,8 +6919,11 @@
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6795,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,74 +7269,77 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-96000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>44000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>231000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-67000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4068300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>896600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-48800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>89700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-339500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-362400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>450900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-47200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-76500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>31600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>811900</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7103,74 +7349,77 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-14000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-25000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>19300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-21000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-14500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>20500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6900</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
@@ -7180,74 +7429,77 @@
       <c r="AA101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E102" s="3">
         <v>165000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-296000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>185000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-127000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>65000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-165200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-731200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>184700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>872000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>24800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-76300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>96000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-376900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-257400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>613900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>57600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-60000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>79200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5600</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7255,6 +7507,9 @@
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
@@ -775,77 +775,80 @@
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>981000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1028000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1177000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1225000</v>
       </c>
-      <c r="G8" s="3">
-        <v>1113000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1131000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1279000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1242000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1139700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>889600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>586300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>657700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>787000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>771300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>781600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>731100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>799300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>761100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>770200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>736200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>697100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1437600</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,77 +858,80 @@
       <c r="AB8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E9" s="3">
         <v>472000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>484000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>509000</v>
       </c>
-      <c r="G9" s="3">
-        <v>512000</v>
-      </c>
       <c r="H9" s="3">
+        <v>510000</v>
+      </c>
+      <c r="I9" s="3">
         <v>502000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>551000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>569000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>596200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>441800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>295900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>332700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>410100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>360400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>356000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>343800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>412500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>369800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>431500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>360000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>376200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>712700</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
@@ -935,77 +941,80 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E10" s="3">
         <v>556000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>693000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>716000</v>
       </c>
-      <c r="G10" s="3">
-        <v>601000</v>
-      </c>
       <c r="H10" s="3">
+        <v>602000</v>
+      </c>
+      <c r="I10" s="3">
         <v>629000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>728000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>673000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>543500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>447800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>290400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>325000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>376900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>410900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>425600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>387300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>386800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>391300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>338700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>376200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>320900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>724900</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1045,77 +1057,78 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E12" s="3">
         <v>78000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>82000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>81000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>92000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>94000</v>
       </c>
       <c r="I12" s="3">
         <v>94000</v>
       </c>
       <c r="J12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="K12" s="3">
         <v>89000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>112700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>88100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>59400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>66800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>67300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>69900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>68800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>64100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>61100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>58900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>61400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>65200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>61900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>127900</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,77 +1221,80 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E14" s="3">
         <v>26000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>86000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>46000</v>
       </c>
-      <c r="G14" s="3">
-        <v>107000</v>
-      </c>
       <c r="H14" s="3">
+        <v>116000</v>
+      </c>
+      <c r="I14" s="3">
         <v>111000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>299000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>108000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>167300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>262200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>119400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>78600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>51600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>77200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>31800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>24900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>46800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>68000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>23700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>181600</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1285,77 +1304,80 @@
       <c r="AB14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E15" s="3">
         <v>128000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>133000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>137000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>139000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>141000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>129000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>147000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>163700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>95600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>49000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>51600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>51400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>50700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>49300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>49000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>50100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>48700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>49400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>49200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>51600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>109400</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1365,8 +1387,11 @@
       <c r="AB15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,77 +1417,78 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>987000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1002000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1128000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1093000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1182000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1185000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1190000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1458000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1261000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1414000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1165400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>686500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>711700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>766300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>750500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>706800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>662900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>755600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>668800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>801400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>656800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>708100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1520000</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,77 +1498,80 @@
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>26000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>49000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>132000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-69000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-59000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-179000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-274300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-275800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-54000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>43700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>92300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-31200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>79400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-11000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-82400</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,8 +1581,11 @@
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,77 +1614,78 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>16600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>114900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-24900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-13500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14400</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,77 +1695,80 @@
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E21" s="3">
         <v>185000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>220000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>299000</v>
       </c>
-      <c r="G21" s="3">
-        <v>108000</v>
-      </c>
       <c r="H21" s="3">
+        <v>104000</v>
+      </c>
+      <c r="I21" s="3">
         <v>100000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>183000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-35500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-28600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>97800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>84900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>148100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>140800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>92500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>151500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>35300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>151800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>66100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>88100</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,70 +1778,73 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E22" s="3">
         <v>60000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>67000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>55000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>60000</v>
       </c>
       <c r="I22" s="3">
         <v>60000</v>
       </c>
       <c r="J22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K22" s="3">
         <v>61000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>18700</v>
       </c>
       <c r="P22" s="3">
         <v>18700</v>
       </c>
       <c r="Q22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="R22" s="3">
         <v>20700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
@@ -1813,8 +1852,8 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1822,77 +1861,80 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-42000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>71000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-121000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-130000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-236000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-80000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-318100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-209000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-77100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-67800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>44800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>78800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-40000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>77500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-68000</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1902,77 +1944,80 @@
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-24000</v>
-      </c>
       <c r="H24" s="3">
-        <v>-26000</v>
+        <v>-17000</v>
       </c>
       <c r="I24" s="3">
         <v>-26000</v>
       </c>
       <c r="J24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-19000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-74000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-23900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-18700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-18600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>22800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>60500</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,8 +2027,11 @@
       <c r="AB24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,77 +2110,80 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-49000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-22000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-97000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-104000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-210000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-61000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-322800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-135000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-53200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-49100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>35900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>31500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>60200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-62800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>72700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-128500</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2142,77 +2193,80 @@
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-49000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-97000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-104000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-210000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-61000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-322800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-135000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-53200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-49100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>31500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-62800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>72700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-128500</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,8 +2276,11 @@
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2346,17 +2406,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
@@ -2382,8 +2442,11 @@
       <c r="AB29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,77 +2608,80 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>8000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-16600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-114900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>24900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>13500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14400</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2622,77 +2691,80 @@
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-49000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-97000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-104000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-210000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-61000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-322800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-135000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-53200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-49100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>31500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-62800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>72700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-128500</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2774,11 @@
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,77 +2857,80 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-49000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-97000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-104000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-210000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-61000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-322800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-135000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-53200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-49100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>31500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-62800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>72700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-128500</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,82 +2940,85 @@
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2947,8 +3028,11 @@
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,68 +3092,69 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E41" s="3">
         <v>460000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>507000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>342000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>638000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>453000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>580000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>515000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>494700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>659900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1391100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1206400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>334000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>309200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>385100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>272100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>474800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>321000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3087,8 +3173,11 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3167,68 +3256,71 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1028000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1128000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1192000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1028000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1082000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1174000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1132000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1076700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>833100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>616800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>752400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>889900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>823400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>831500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>827400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>709400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>636900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>623700</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3247,68 +3339,71 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1340000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1334000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1345000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1373000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1383000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1450000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1424000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1578100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1597100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1065300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1019000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1050700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1068700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1053100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1035500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1004100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1008700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1005600</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,68 +3422,71 @@
       <c r="AB44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E45" s="3">
         <v>326000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>338000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>315000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>237000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>242000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>227000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>273000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>267000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>191300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>118100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>142800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>98500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>109100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>113800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>143300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>316600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>758100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>106600</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3407,68 +3505,71 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3279000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3154000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3307000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3194000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3276000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3160000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3431000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3344000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3416500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3281400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3191300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3120600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2373100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2310400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2383500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2278300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2504900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2703700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2056900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3487,68 +3588,71 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E47" s="3">
         <v>28000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>31000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>33400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>16300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>15300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>14900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12800</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3567,68 +3671,71 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>999000</v>
+      </c>
+      <c r="E48" s="3">
         <v>936000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>961000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>987000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1061000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1041000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1033000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1271000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1503400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1242500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>924100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>930100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1040300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>993400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1012400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1010900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>922400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>909300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>877700</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,68 +3754,71 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10835000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10482000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10957000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11511000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11759000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12007000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11994000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12048000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12612100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12220300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5476700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5459500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5472400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5381400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5312400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5319600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5411000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5483600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5467200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,8 +3837,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,68 +4003,71 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E52" s="3">
         <v>348000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>345000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>536000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>365000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>336000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>357000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>291000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>127300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>471100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>264300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>197000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>81200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>120600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>132300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>122900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>103100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>100000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>162800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3967,8 +4086,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,68 +4169,71 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15491000</v>
+      </c>
+      <c r="E54" s="3">
         <v>14948000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15601000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16251000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16483000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16565000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16833000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16988000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17692700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17237000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9876000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9727200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8985800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8823700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8856900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8747400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8956700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9211500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8577400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4252,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,68 +4316,69 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E57" s="3">
         <v>350000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>386000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>402000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>418000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>436000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>506000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>411000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>501000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>355900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>242500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>215000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>222600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>206100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>242900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>252100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>205200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>202700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>193900</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4267,61 +4397,64 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E58" s="3">
         <v>394000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>56000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>61000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>294000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>61000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>555000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>605000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>554500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>553600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>24500</v>
       </c>
       <c r="P58" s="3">
         <v>24500</v>
       </c>
       <c r="Q58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="R58" s="3">
         <v>27100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>29000</v>
       </c>
       <c r="S58" s="3">
         <v>29000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
+      <c r="T58" s="3">
+        <v>29000</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
@@ -4338,8 +4471,8 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4347,68 +4480,71 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>924000</v>
+      </c>
+      <c r="E59" s="3">
         <v>869000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>896000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>844000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>931000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>865000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>929000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1018000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1020800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>961700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>567000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>466500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>571400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>510900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>507500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>427100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>736500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1042700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>364500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4427,68 +4563,71 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1702000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1613000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1338000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1307000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1643000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1362000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1990000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2034000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2076300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1871200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>835400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>707500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>818500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>741500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>777500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>708200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>970700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1245400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>558400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4507,65 +4646,68 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5448000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5507000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6007000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6073000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6025000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6273000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5542000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5556000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5572400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5586500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2030400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2035600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2330500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2335600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2382000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2436600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2443300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2478500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4587,68 +4729,71 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1052000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1083000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1116000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1259000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1277000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1248000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1321000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1391000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1568100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1435100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>358300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>322600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>289900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>258900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>431900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>406400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>345200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>350500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>432400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4812,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,68 +5061,71 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8202000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8203000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8461000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8639000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8945000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8883000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8853000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8981000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9216800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8892800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3224100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3065700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3438900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3336000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3591400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3551200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3759200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4074400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>990800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4987,8 +5144,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,68 +5507,71 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1057000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-972000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-923000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-901000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-949000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-852000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-748000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-538000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-477200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-154400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>84300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>93800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>83800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16400</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
       <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
         <v>7947500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5417,8 +5590,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,68 +5839,71 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7289000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6745000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7140000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7612000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7538000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7682000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7980000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8007000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8475900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8344200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6651900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6661500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5546900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5487700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5265500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5196200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5197500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5137100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7586600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5737,8 +5922,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,82 +6005,85 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5902,77 +6093,80 @@
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-49000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-97000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-104000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-210000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-61000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-322800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-135000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-53200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-49100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>31500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-62800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>72700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-128500</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5982,8 +6176,11 @@
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,77 +6209,78 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E83" s="3">
         <v>167000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>171000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>176000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>174000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>170000</v>
       </c>
       <c r="I83" s="3">
         <v>170000</v>
       </c>
       <c r="J83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="K83" s="3">
         <v>202000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>222200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>132300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>80900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>81500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>83400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>78700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>69300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>83100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>73700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>72700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>75300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>74300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>75200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>156100</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6092,8 +6290,11 @@
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,77 +6705,80 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E89" s="3">
         <v>189000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>312000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-62000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>223000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>89000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>149000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-92900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-111700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>159300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>126300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>139500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>163900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>136900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>47000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>76500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>90600</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6572,8 +6788,11 @@
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,77 +6821,78 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26000</v>
+        <v>-66000</v>
       </c>
       <c r="E91" s="3">
         <v>-26000</v>
       </c>
       <c r="F91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-66000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-118400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-12600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-54400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6682,8 +6902,11 @@
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,77 +7068,80 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37000</v>
+        <v>-76000</v>
       </c>
       <c r="E94" s="3">
         <v>-37000</v>
       </c>
       <c r="F94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-29000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-441000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-73300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-49000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-23100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-34400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-25300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-903800</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6922,8 +7151,11 @@
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7032,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,77 +7514,80 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-169000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-96000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>44000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>231000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-67000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4068300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>896600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>89700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-339500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-362400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>450900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-47200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-76500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>31600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>811900</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7352,77 +7597,80 @@
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-30000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-25000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>19300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-21000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-14500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>20500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-9000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6900</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z101" s="3" t="s">
         <v>3</v>
       </c>
@@ -7432,77 +7680,80 @@
       <c r="AB101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-47000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>165000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-296000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>185000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-127000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>65000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-165200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-731200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>184700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>872000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-76300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>96000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-376900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-257400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>613900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>57600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-60000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>79200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5600</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7510,6 +7761,9 @@
         <v>3</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
@@ -778,80 +779,83 @@
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1257000</v>
+      </c>
+      <c r="E8" s="3">
         <v>981000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1028000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1177000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1225000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1112000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1131000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1279000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1242000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1139700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>889600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>586300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>657700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>787000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>771300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>781600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>731100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>799300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>761100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>770200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>736200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>697100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1437600</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,80 +865,83 @@
       <c r="AC8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E9" s="3">
         <v>448000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>472000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>484000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>509000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>510000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>502000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>551000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>569000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>596200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>441800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>295900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>332700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>410100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>360400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>356000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>343800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>412500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>369800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>431500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>360000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>376200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>712700</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,80 +951,83 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>763000</v>
+      </c>
+      <c r="E10" s="3">
         <v>533000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>556000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>693000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>716000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>602000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>629000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>728000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>673000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>543500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>447800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>290400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>325000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>376900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>410900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>425600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>387300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>386800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>391300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>338700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>376200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>320900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>724900</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1037,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,80 +1071,81 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E12" s="3">
         <v>80000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>78000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>82000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>81000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>92000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>94000</v>
       </c>
       <c r="J12" s="3">
         <v>94000</v>
       </c>
       <c r="K12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="L12" s="3">
         <v>89000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>112700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>88100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>59400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>66800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>67300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>69900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>68800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>64100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>61100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>58900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>61400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>65200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>61900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>127900</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1141,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,80 +1241,83 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E14" s="3">
         <v>25000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>26000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>86000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>46000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>116000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>111000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>299000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>108000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>167300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>262200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>119400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>78600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>51600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>77200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>31800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>24900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>46800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>68000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>23700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>181600</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,80 +1327,83 @@
       <c r="AC14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E15" s="3">
         <v>130000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>128000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>133000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>137000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>139000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>141000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>129000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>147000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>163700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>95600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>49000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>51600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>51400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>50700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>49300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>49000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>50100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>48700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>49400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>49200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>51600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>109400</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1390,8 +1413,11 @@
       <c r="AC15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,80 +1444,81 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1076000</v>
+      </c>
+      <c r="E17" s="3">
         <v>987000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1002000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1128000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1093000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1185000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1190000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1458000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1261000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1414000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1165400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>686500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>711700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>766300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>750500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>706800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>662900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>755600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>668800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>801400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>656800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>708100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1520000</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,80 +1528,83 @@
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>49000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>132000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-73000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-59000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-179000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-274300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-275800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-54000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>43700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>92300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-31200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>79400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-82400</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1614,11 @@
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,80 +1648,81 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>16600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>114900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>47900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-24900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-13500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>14400</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1698,80 +1732,83 @@
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E21" s="3">
         <v>147000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>185000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>220000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>299000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>104000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>183000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-35500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-28600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>97800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>84900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>148100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>140800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>92500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>151500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>35300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>151800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>66100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>88100</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1781,73 +1818,76 @@
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E22" s="3">
         <v>62000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>60000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>67000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>55000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>60000</v>
       </c>
       <c r="J22" s="3">
         <v>60000</v>
       </c>
       <c r="K22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="L22" s="3">
         <v>61000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>18700</v>
       </c>
       <c r="Q22" s="3">
         <v>18700</v>
       </c>
       <c r="R22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="S22" s="3">
         <v>20700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
@@ -1855,8 +1895,8 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1864,80 +1904,83 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-83000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-42000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>71000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-125000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-130000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-236000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-80000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-318100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-209000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-77100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-67800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>44800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>78800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-40000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>77500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-68000</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1947,80 +1990,83 @@
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-17000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-26000</v>
       </c>
       <c r="J24" s="3">
         <v>-26000</v>
       </c>
       <c r="K24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="L24" s="3">
         <v>-19000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-74000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-23900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-18700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-22500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-18600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>22800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>60500</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2030,8 +2076,11 @@
       <c r="AC24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,80 +2162,83 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-55000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-49000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-108000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-104000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-210000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-61000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-322800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-135000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-53200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-49100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>35900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>31500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>60200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-62800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>72700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-128500</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,80 +2248,83 @@
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-55000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-49000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>48000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-108000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-104000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-210000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-61000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-322800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-135000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-53200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-49100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>31500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>60200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-62800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>72700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-128500</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2334,11 @@
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2409,17 +2470,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>3</v>
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>3</v>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,80 +2678,83 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-16600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-114900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-47900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>24900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>13500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-14400</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,80 +2764,83 @@
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-55000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-49000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>48000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-108000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-104000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-210000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-61000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-322800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-135000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-53200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-49100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>31500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>60200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-62800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>72700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-128500</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2777,8 +2850,11 @@
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,80 +2936,83 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-55000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-49000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>48000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-108000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-104000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-210000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-61000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-322800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-135000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-53200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-49100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>31500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>60200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-62800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>72700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-128500</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,85 +3022,88 @@
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3113,11 @@
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,71 +3179,72 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E41" s="3">
         <v>345000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>460000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>507000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>342000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>638000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>453000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>580000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>515000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>494700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>659900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1391100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1206400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>334000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>309200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>385100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>272100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>474800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>321000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,8 +3263,11 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3259,71 +3349,74 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1264000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1002000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1028000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1128000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1192000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1028000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1082000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1174000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1132000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1076700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>833100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>616800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>752400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>889900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>823400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>831500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>827400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>709400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>636900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>623700</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3342,71 +3435,74 @@
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1596000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1538000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1340000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1334000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1345000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1373000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1383000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1450000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1424000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1578100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1597100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1065300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1019000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1050700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1068700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1053100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1035500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1004100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1008700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1005600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3425,71 +3521,74 @@
       <c r="AC44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E45" s="3">
         <v>394000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>326000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>338000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>315000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>237000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>242000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>227000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>273000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>267000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>191300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>118100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>142800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>98500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>109100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>113800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>143300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>316600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>758100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>106600</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,71 +3607,74 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3548000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3279000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3154000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3307000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3194000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3276000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3160000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3431000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3344000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3416500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3281400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3191300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3120600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2373100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2310400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2383500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2278300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2504900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2703700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2056900</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3591,8 +3693,11 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3600,62 +3705,62 @@
         <v>27000</v>
       </c>
       <c r="E47" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F47" s="3">
         <v>28000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>31000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>23000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>22000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>33400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>17900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>15700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>14900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12800</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3674,71 +3779,74 @@
       <c r="AC47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E48" s="3">
         <v>999000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>936000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>961000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>987000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1061000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1041000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1033000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1271000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1503400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1242500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>924100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>930100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1040300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>993400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1012400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1010900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>922400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>909300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>877700</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3757,71 +3865,74 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10852000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10835000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10482000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10957000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11511000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11759000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12007000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11994000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12048000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12612100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12220300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5476700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5459500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5472400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5381400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5312400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5319600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5411000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5483600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5467200</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3840,8 +3951,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,71 +4123,74 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E52" s="3">
         <v>351000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>348000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>345000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>536000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>365000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>336000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>357000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>291000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>127300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>471100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>264300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>197000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>81200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>120600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>132300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>122900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>103100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>100000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>162800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4089,8 +4209,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,71 +4295,74 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15769000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15491000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14948000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15601000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16251000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16483000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16565000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16833000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16988000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17692700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17237000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9876000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9727200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8985800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8823700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8856900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8747400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8956700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9211500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8577400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4255,8 +4381,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,71 +4447,72 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E57" s="3">
         <v>390000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>350000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>386000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>402000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>418000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>436000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>506000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>411000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>501000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>355900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>242500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>215000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>222600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>206100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>242900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>252100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>205200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>202700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>193900</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,64 +4531,67 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E58" s="3">
         <v>388000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>394000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>56000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>61000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>294000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>61000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>555000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>605000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>554500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>553600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>25900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>24500</v>
       </c>
       <c r="Q58" s="3">
         <v>24500</v>
       </c>
       <c r="R58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="S58" s="3">
         <v>27100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>29000</v>
       </c>
       <c r="T58" s="3">
         <v>29000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
+      <c r="U58" s="3">
+        <v>29000</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
@@ -4474,8 +4608,8 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
@@ -4483,71 +4617,74 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>816000</v>
+      </c>
+      <c r="E59" s="3">
         <v>924000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>869000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>896000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>844000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>931000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>865000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>929000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1018000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1020800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>961700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>567000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>466500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>571400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>510900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>507500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>427100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>736500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1042700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>364500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4566,71 +4703,74 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1578000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1702000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1613000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1338000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1307000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1643000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1362000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1990000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2034000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2076300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1871200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>835400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>707500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>818500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>741500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>777500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>708200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>970700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1245400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>558400</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4649,68 +4789,71 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5639000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5448000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5507000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6007000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6073000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6025000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6273000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5542000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5556000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5572400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5586500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2030400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2035600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2330500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2335600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2382000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2436600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2443300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2478500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4732,71 +4875,74 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1052000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1083000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1116000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1259000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1277000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1248000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1321000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1391000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1568100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1435100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>358300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>322600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>289900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>258900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>431900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>406400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>345200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>350500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>432400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4815,8 +4961,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,71 +5219,74 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8289000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8202000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8203000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8461000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8639000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8945000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8883000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8853000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8981000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9216800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8892800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3224100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3065700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3438900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3336000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3591400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3551200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3759200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4074400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>990800</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5147,8 +5305,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,71 +5681,74 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-954000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1057000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-972000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-923000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-901000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-949000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-852000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-748000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-538000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-477200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-154400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>84300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>93800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>83800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16400</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
       <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
         <v>7947500</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5593,8 +5767,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,71 +6025,74 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7480000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7289000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6745000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7140000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7612000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7538000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7682000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7980000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8007000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8475900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8344200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6651900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6661500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5546900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5487700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5265500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5196200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5197500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5137100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7586600</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5925,8 +6111,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,85 +6197,88 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6096,80 +6288,83 @@
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-55000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-49000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>48000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-108000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-104000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-210000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-61000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-322800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-135000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-53200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-49100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>31500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>60200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-62800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>72700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-128500</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
@@ -6179,8 +6374,11 @@
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,80 +6408,81 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E83" s="3">
         <v>168000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>167000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>171000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>176000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>174000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>170000</v>
       </c>
       <c r="J83" s="3">
         <v>170000</v>
       </c>
       <c r="K83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="L83" s="3">
         <v>202000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>222200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>132300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>80900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>81500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>83400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>78700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>69300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>83100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>73700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>72700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>75300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>74300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>75200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>156100</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6293,8 +6492,11 @@
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,80 +6922,83 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E89" s="3">
         <v>13000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>189000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>312000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-62000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>223000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>89000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>149000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-92900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-111700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>159300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>126300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>139500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>163900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>136900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>47000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>76500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>90600</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6791,8 +7008,11 @@
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,80 +7042,81 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-66000</v>
+        <v>-38000</v>
       </c>
       <c r="E91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-26000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-66000</v>
-      </c>
       <c r="I91" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-25000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-118400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-12600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-60200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-21700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6905,8 +7126,11 @@
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,80 +7298,83 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-76000</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-37000</v>
       </c>
       <c r="F94" s="3">
         <v>-37000</v>
       </c>
       <c r="G94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-29000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-74000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-441000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-73300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-83000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-49000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-23100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-34400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-25300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-903800</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7154,8 +7384,11 @@
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7268,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,80 +7760,83 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-84000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-169000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-96000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>44000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>231000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-67000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4068300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>896600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-48800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>89700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-339500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-362400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>450900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-47200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-76500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>31600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>811900</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7600,80 +7846,83 @@
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>32000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-30000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-25000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>19300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-14500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>20500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6900</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA101" s="3" t="s">
         <v>3</v>
       </c>
@@ -7683,80 +7932,83 @@
       <c r="AC101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-115000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-47000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>165000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-296000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>185000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-127000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>65000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-165200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-731200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>184700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>872000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>24800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-76300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>96000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-376900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-257400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>613900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>57600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-60000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>79200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5600</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7764,6 +8016,9 @@
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
@@ -782,83 +783,86 @@
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1057000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1257000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>981000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1028000</v>
       </c>
-      <c r="G8" s="3">
-        <v>1177000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1175000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1225000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1112000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1131000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1279000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1242000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1139700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>889600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>586300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>657700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>787000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>771300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>781600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>731100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>799300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>761100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>770200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>736200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>697100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1437600</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB8" s="3" t="s">
         <v>3</v>
       </c>
@@ -868,83 +872,86 @@
       <c r="AD8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E9" s="3">
         <v>494000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>448000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>472000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>484000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>509000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>510000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>502000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>551000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>569000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>596200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>441800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>295900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>332700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>410100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>360400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>356000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>343800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>412500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>369800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>431500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>360000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>376200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>712700</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
@@ -954,83 +961,86 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E10" s="3">
         <v>763000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>533000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>556000</v>
       </c>
-      <c r="G10" s="3">
-        <v>693000</v>
-      </c>
       <c r="H10" s="3">
+        <v>691000</v>
+      </c>
+      <c r="I10" s="3">
         <v>716000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>602000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>629000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>728000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>673000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>543500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>447800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>290400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>325000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>376900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>410900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>425600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>387300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>386800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>391300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>338700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>376200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>320900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>724900</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1050,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1085,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1081,74 +1095,74 @@
         <v>81000</v>
       </c>
       <c r="E12" s="3">
+        <v>81000</v>
+      </c>
+      <c r="F12" s="3">
         <v>80000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>78000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>82000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>81000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>92000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>94000</v>
       </c>
       <c r="K12" s="3">
         <v>94000</v>
       </c>
       <c r="L12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="M12" s="3">
         <v>89000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>112700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>88100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>59400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>66800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>67300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>69900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>68800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>64100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>61100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>58900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>61400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>65200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>61900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>127900</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1172,11 @@
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,83 +1261,86 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E14" s="3">
         <v>40000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>25000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>26000</v>
       </c>
-      <c r="G14" s="3">
-        <v>86000</v>
-      </c>
       <c r="H14" s="3">
+        <v>87000</v>
+      </c>
+      <c r="I14" s="3">
         <v>46000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>116000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>111000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>299000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>108000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>167300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>262200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>119400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>78600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>51600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>77200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>31800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>24900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>46800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>68000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>23700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>181600</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,83 +1350,86 @@
       <c r="AD14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E15" s="3">
         <v>134000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>130000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>128000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>133000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>137000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>139000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>141000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>129000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>147000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>163700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>95600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>49000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>51600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>51400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>50700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>49300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>49000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>50100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>48700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>49400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>49200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>51600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>109400</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,8 +1439,11 @@
       <c r="AD15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,83 +1471,84 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1076000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>987000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1002000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1128000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1093000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1185000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1190000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1458000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1261000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1414000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1165400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>686500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>711700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>766300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>750500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>706800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>662900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>755600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>668800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>801400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>656800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>708100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1520000</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1531,83 +1558,86 @@
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E18" s="3">
         <v>181000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26000</v>
       </c>
-      <c r="G18" s="3">
-        <v>49000</v>
-      </c>
       <c r="H18" s="3">
+        <v>47000</v>
+      </c>
+      <c r="I18" s="3">
         <v>132000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-73000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-59000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-179000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-274300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-275800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>74800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>68200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>92300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-31200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>79400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-82400</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1617,8 +1647,11 @@
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,83 +1682,84 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>16600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>114900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>47900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-24900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-13500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>14400</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,83 +1769,86 @@
       <c r="AD20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E21" s="3">
         <v>345000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>147000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>185000</v>
       </c>
-      <c r="G21" s="3">
-        <v>220000</v>
-      </c>
       <c r="H21" s="3">
+        <v>224000</v>
+      </c>
+      <c r="I21" s="3">
         <v>299000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>104000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>183000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-35500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-28600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>30200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>97800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>84900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>148100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>140800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>92500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>151500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>35300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>151800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>66100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>88100</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,76 +1858,79 @@
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E22" s="3">
         <v>64000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>62000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>60000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>67000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>52000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>55000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>60000</v>
       </c>
       <c r="K22" s="3">
         <v>60000</v>
       </c>
       <c r="L22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="M22" s="3">
         <v>61000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>18700</v>
       </c>
       <c r="R22" s="3">
         <v>18700</v>
       </c>
       <c r="S22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="T22" s="3">
         <v>20700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>21000</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>3</v>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>3</v>
@@ -1898,8 +1938,8 @@
       <c r="AA22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
@@ -1907,83 +1947,86 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E23" s="3">
         <v>108000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-83000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-42000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-18000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="I23" s="3">
         <v>71000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-125000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-130000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-236000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-80000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-318100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-209000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-77100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-67800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>50200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>78800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-40000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>77500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-68000</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,83 +2036,86 @@
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
-        <v>4000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I24" s="3">
         <v>23000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-17000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-26000</v>
       </c>
       <c r="K24" s="3">
         <v>-26000</v>
       </c>
       <c r="L24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="M24" s="3">
         <v>-19000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-74000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-23900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-22500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-18600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>22800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>60500</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2125,11 @@
       <c r="AD24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,83 +2214,86 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E26" s="3">
         <v>103000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-55000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-49000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-22000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I26" s="3">
         <v>48000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-108000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-104000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-210000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-322800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-135000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-53200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>35900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>31500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>60200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-62800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>72700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-128500</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,83 +2303,86 @@
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E27" s="3">
         <v>103000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-55000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-49000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-22000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I27" s="3">
         <v>48000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-108000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-104000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-210000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-61000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-322800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-135000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-53200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>31500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>60200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-62800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>72700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-128500</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,8 +2392,11 @@
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2481,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2473,17 +2534,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>3</v>
@@ -2509,8 +2570,11 @@
       <c r="AD29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,83 +2748,86 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E32" s="3">
         <v>9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I32" s="3">
         <v>9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-16600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-114900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-47900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>24900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>13500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-14400</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,83 +2837,86 @@
       <c r="AD32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E33" s="3">
         <v>103000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-55000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-49000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-22000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I33" s="3">
         <v>48000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-108000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-104000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-210000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-61000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-322800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-135000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-53200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>31500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>60200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-62800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>72700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-128500</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2853,8 +2926,11 @@
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,83 +3015,86 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E35" s="3">
         <v>103000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-55000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-49000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-22000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I35" s="3">
         <v>48000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-108000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-104000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-210000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-61000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-322800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-135000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-53200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>31500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>60200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-62800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>72700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-128500</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
@@ -3025,88 +3104,91 @@
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3198,11 @@
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,74 +3266,75 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E41" s="3">
         <v>318000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>345000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>460000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>507000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>342000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>638000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>453000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>580000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>515000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>494700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>659900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1391100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1206400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>334000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>309200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>385100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>272100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>474800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>321000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +3353,11 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3352,74 +3442,77 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1225000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1264000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1002000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1028000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1128000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1192000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1028000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1082000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1174000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1132000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1076700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>833100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>616800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>752400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>889900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>823400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>831500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>827400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>709400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>636900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>623700</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3438,74 +3531,77 @@
       <c r="AD43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1690000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1596000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1538000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1340000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1334000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1345000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1373000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1383000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1450000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1424000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1578100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1597100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1065300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1019000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1050700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1068700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1053100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1035500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1004100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1008700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1005600</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3524,8 +3620,11 @@
       <c r="AD44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3533,65 +3632,65 @@
         <v>370000</v>
       </c>
       <c r="E45" s="3">
+        <v>370000</v>
+      </c>
+      <c r="F45" s="3">
         <v>394000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>326000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>338000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>315000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>237000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>242000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>227000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>273000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>267000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>191300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>118100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>142800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>98500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>109100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>113800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>143300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>316600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>758100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>106600</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3610,74 +3709,77 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3652000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3548000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3279000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3154000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3307000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3194000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3276000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3160000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3431000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3344000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3416500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3281400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3191300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3120600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2373100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2310400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2383500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2278300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2504900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2703700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2056900</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3696,8 +3798,11 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3708,62 +3813,62 @@
         <v>27000</v>
       </c>
       <c r="F47" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G47" s="3">
         <v>28000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>31000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>22000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>21000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>33400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>21700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>17900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>14900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12800</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3782,74 +3887,77 @@
       <c r="AD47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1007000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>999000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>936000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>961000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>987000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1061000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1041000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1033000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1271000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1503400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1242500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>924100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>930100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1040300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>993400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1012400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1010900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>922400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>909300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>877700</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,74 +3976,77 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10718000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10852000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10835000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10482000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10957000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11511000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11759000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12007000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11994000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12048000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12612100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12220300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5476700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5459500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5472400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5381400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5312400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5319600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5411000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5483600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5467200</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3954,8 +4065,11 @@
       <c r="AD49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,74 +4243,77 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E52" s="3">
         <v>342000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>351000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>348000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>345000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>536000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>365000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>336000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>357000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>291000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>127300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>471100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>264300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>197000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>81200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>120600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>132300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>122900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>103100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>100000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>162800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4212,8 +4332,11 @@
       <c r="AD52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,74 +4421,77 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15796000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15769000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15491000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14948000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15601000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16251000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16483000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16565000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16833000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16988000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17692700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17237000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9876000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9727200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8985800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8823700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8856900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8747400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8956700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9211500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8577400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4384,8 +4510,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,74 +4578,75 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E57" s="3">
         <v>381000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>390000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>350000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>386000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>402000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>418000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>436000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>506000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>411000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>501000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>355900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>242500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>215000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>222600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>206100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>242900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>252100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>205200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>202700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>193900</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,67 +4665,70 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E58" s="3">
         <v>381000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>388000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>394000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>56000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>61000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>294000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>61000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>555000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>605000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>554500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>553600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>24500</v>
       </c>
       <c r="R58" s="3">
         <v>24500</v>
       </c>
       <c r="S58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="T58" s="3">
         <v>27100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>29000</v>
       </c>
       <c r="U58" s="3">
         <v>29000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
+      <c r="V58" s="3">
+        <v>29000</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
@@ -4611,8 +4745,8 @@
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC58" s="3">
         <v>0</v>
@@ -4620,74 +4754,77 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>891000</v>
+      </c>
+      <c r="E59" s="3">
         <v>816000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>924000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>869000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>896000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>844000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>931000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>865000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>929000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1018000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1020800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>961700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>567000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>466500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>571400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>510900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>507500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>427100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>736500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1042700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>364500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,74 +4843,77 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1284000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1578000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1702000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1613000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1338000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1307000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1643000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1362000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1990000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2034000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2076300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1871200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>835400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>707500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>818500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>741500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>777500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>708200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>970700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1245400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>558400</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,71 +4932,74 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6023000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5639000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5448000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5507000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6007000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6073000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6025000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6273000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5542000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5556000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5572400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5586500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2030400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2035600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2330500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2335600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2382000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2436600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2443300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2478500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4878,74 +5021,77 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1072000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1052000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1083000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1116000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1259000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1277000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1248000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1321000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1391000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1568100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1435100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>358300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>322600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>289900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>258900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>431900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>406400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>345200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>350500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>432400</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4964,8 +5110,11 @@
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,74 +5377,77 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8376000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8289000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8202000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8203000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8461000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8639000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8945000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8883000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8853000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8981000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9216800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8892800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3224100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3065700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3438900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3336000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3591400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3551200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3759200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4074400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>990800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5308,8 +5466,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,74 +5855,77 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1051000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-954000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1057000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-972000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-923000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-901000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-949000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-852000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-748000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-538000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-477200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-154400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>84300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>93800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>83800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16400</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
-      </c>
       <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
         <v>7947500</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5770,8 +5944,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,74 +6211,77 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7420000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7480000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7289000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6745000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7140000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7612000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7538000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7682000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7980000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8007000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8475900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8344200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6651900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6661500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5546900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5487700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5265500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5196200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5197500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5137100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7586600</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6114,8 +6300,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,88 +6389,91 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6291,83 +6483,86 @@
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E81" s="3">
         <v>103000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-55000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-49000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-22000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I81" s="3">
         <v>48000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-108000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-104000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-210000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-61000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-322800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-135000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-53200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>31500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>60200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-62800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>72700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-128500</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
@@ -6377,8 +6572,11 @@
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,83 +6607,84 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E83" s="3">
         <v>173000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>168000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>167000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>171000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>176000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>174000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>170000</v>
       </c>
       <c r="K83" s="3">
         <v>170000</v>
       </c>
       <c r="L83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="M83" s="3">
         <v>202000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>222200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>132300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>80900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>81500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>83400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>78700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>69300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>83100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>73700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>72700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>75300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>74300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>75200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>156100</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6495,8 +6694,11 @@
       <c r="AD83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,83 +7139,86 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-145000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>189000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>312000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-62000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>223000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>89000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>149000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-92900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-111700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>159300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>126300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>50100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>139500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>163900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>136900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>47000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>76500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>90600</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7011,8 +7228,11 @@
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,83 +7263,84 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-79000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-91000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-118400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-28000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-60200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-21700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
@@ -7129,8 +7350,11 @@
       <c r="AD91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,83 +7528,86 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-55000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-76000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-37000</v>
       </c>
       <c r="G94" s="3">
         <v>-37000</v>
       </c>
       <c r="H94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-29000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-74000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-441000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-73300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-74300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-83000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-49000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-48100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-23100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-34400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-25300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-903800</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7387,8 +7617,11 @@
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7652,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7505,8 +7739,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,83 +8006,86 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E100" s="3">
         <v>174000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-84000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-169000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-96000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>44000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>231000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-67000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4068300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>896600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-48800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>89700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-339500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-362400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>450900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-47200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-76500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>31600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>811900</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7849,83 +8095,86 @@
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>32000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-30000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-25000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-21000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-14500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>13600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>20500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-9000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>6900</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB101" s="3" t="s">
         <v>3</v>
       </c>
@@ -7935,83 +8184,86 @@
       <c r="AD101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-115000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-47000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>165000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-296000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>185000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-127000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>65000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-165200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-731200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>184700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>872000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>24800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-76300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>96000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-376900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-257400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>613900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>57600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>79200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5600</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
@@ -8019,6 +8271,9 @@
         <v>3</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,119 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
@@ -786,86 +787,89 @@
       <c r="AE7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1057000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1257000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>981000</v>
       </c>
-      <c r="G8" s="3">
-        <v>1028000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1026000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1175000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1225000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1112000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1131000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1279000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1242000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1139700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>889600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>586300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>657700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>787000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>771300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>781600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>731100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>799300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>761100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>770200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>736200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>697100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1437600</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC8" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,86 +879,89 @@
       <c r="AE8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E9" s="3">
         <v>434000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>494000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>448000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>472000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>484000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>509000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>510000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>502000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>551000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>569000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>596200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>441800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>295900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>332700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>410100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>360400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>356000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>343800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>412500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>369800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>431500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>360000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>376200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>712700</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,86 +971,89 @@
       <c r="AE9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>581000</v>
+      </c>
+      <c r="E10" s="3">
         <v>623000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>763000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>533000</v>
       </c>
-      <c r="G10" s="3">
-        <v>556000</v>
-      </c>
       <c r="H10" s="3">
+        <v>554000</v>
+      </c>
+      <c r="I10" s="3">
         <v>691000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>716000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>602000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>629000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>728000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>673000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>543500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>447800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>290400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>325000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>376900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>410900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>425600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>387300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>386800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>391300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>338700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>376200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>320900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>724900</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,8 +1063,11 @@
       <c r="AE10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1086,86 +1099,87 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>81000</v>
+        <v>86000</v>
       </c>
       <c r="E12" s="3">
         <v>81000</v>
       </c>
       <c r="F12" s="3">
+        <v>81000</v>
+      </c>
+      <c r="G12" s="3">
         <v>80000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>78000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>82000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>81000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>92000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>94000</v>
       </c>
       <c r="L12" s="3">
         <v>94000</v>
       </c>
       <c r="M12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="N12" s="3">
         <v>89000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>112700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>88100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>59400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>66800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>67300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>69900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>68800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>64100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>61100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>58900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>61400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>65200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>61900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>127900</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1175,8 +1189,11 @@
       <c r="AE12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,86 +1281,89 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1058000</v>
+      </c>
+      <c r="E14" s="3">
         <v>35000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>40000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>25000</v>
       </c>
-      <c r="G14" s="3">
-        <v>26000</v>
-      </c>
       <c r="H14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I14" s="3">
         <v>87000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>46000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>116000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>111000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>299000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>108000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>167300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>262200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>119400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>78600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>51600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>77200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>31800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>24900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>46800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>68000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>23700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>181600</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,86 +1373,89 @@
       <c r="AE14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E15" s="3">
         <v>136000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>134000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>130000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>128000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>133000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>137000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>139000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>141000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>129000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>147000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>163700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>95600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>49000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>51600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>51400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>50700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>49300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>49000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>50100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>48700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>49400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>49200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>51600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>109400</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,8 +1465,11 @@
       <c r="AE15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,86 +1498,87 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2084000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1039000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1076000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>987000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1002000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1128000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1093000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1185000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1190000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1458000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1261000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1414000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1165400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>686500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>711700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>766300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>750500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>706800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>662900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>755600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>668800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>801400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>656800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>708100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1520000</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,86 +1588,89 @@
       <c r="AE17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1016000</v>
+      </c>
+      <c r="E18" s="3">
         <v>18000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>181000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6000</v>
       </c>
-      <c r="G18" s="3">
-        <v>26000</v>
-      </c>
       <c r="H18" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I18" s="3">
         <v>47000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>132000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-73000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-59000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-179000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-274300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-275800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-54000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>74800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>68200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>43700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>92300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-31200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>79400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-82400</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1680,11 @@
       <c r="AE18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,86 +1716,87 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-23000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>16600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>114900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>47900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-24900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-13500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>14400</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1772,86 +1806,89 @@
       <c r="AE20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-852000</v>
+      </c>
+      <c r="E21" s="3">
         <v>172000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>345000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>147000</v>
       </c>
-      <c r="G21" s="3">
-        <v>185000</v>
-      </c>
       <c r="H21" s="3">
+        <v>183000</v>
+      </c>
+      <c r="I21" s="3">
         <v>224000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>299000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>104000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>183000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-35500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-28600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>30200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>97800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>84900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>148100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>140800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>92500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>151500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>35300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>151800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>66100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>88100</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1861,79 +1898,82 @@
       <c r="AE21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E22" s="3">
         <v>74000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>64000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>60000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>67000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>55000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>60000</v>
       </c>
       <c r="L22" s="3">
         <v>60000</v>
       </c>
       <c r="M22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="N22" s="3">
         <v>61000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>18700</v>
       </c>
       <c r="S22" s="3">
         <v>18700</v>
       </c>
       <c r="T22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="U22" s="3">
         <v>20700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>21000</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>3</v>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>3</v>
@@ -1941,8 +1981,8 @@
       <c r="AB22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
+      <c r="AC22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
@@ -1950,86 +1990,89 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1097000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-79000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>108000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-83000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-42000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>71000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-125000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-130000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-236000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-80000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-318100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-209000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-77100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-67800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>50200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>78800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>77500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-68000</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,86 +2082,89 @@
       <c r="AE23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>18000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-28000</v>
       </c>
-      <c r="G24" s="3">
-        <v>7000</v>
-      </c>
       <c r="H24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-17000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-26000</v>
       </c>
       <c r="L24" s="3">
         <v>-26000</v>
       </c>
       <c r="M24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="N24" s="3">
         <v>-19000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-74000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-18700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-22500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-18600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>22800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>11600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>60500</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2174,11 @@
       <c r="AE24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,86 +2266,89 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1096000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-97000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>103000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-55000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-49000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-10000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-108000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-104000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-210000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-61000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-322800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-135000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-49100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>35900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>31500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>60200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-62800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>72700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-20700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-128500</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2306,86 +2358,89 @@
       <c r="AE26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1096000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-97000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>103000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-55000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-49000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-10000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-108000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-104000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-210000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-61000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-322800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-135000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-49100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>35900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>31500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>60200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-62800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>72700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-20700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-128500</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2450,11 @@
       <c r="AE27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2537,17 +2598,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>3</v>
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>3</v>
@@ -2573,8 +2634,11 @@
       <c r="AE29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,86 +2818,89 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>23000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-16600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-114900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>24900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>13500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-14400</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,86 +2910,89 @@
       <c r="AE32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1096000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-97000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>103000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-55000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-49000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-10000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>48000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-108000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-104000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-210000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-61000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-322800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-135000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-49100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>35900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>31500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>60200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-62800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>72700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-20700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-128500</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3002,11 @@
       <c r="AE33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,86 +3094,89 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1096000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-97000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>103000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-55000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-49000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-10000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>48000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-108000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-104000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-210000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-61000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-322800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-135000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-49100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>35900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>31500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>60200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-62800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>72700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-20700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-128500</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,91 +3186,94 @@
       <c r="AE35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3201,8 +3283,11 @@
       <c r="AE38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,77 +3353,78 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>369000</v>
+      </c>
+      <c r="E41" s="3">
         <v>367000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>318000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>345000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>460000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>507000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>342000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>638000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>453000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>580000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>515000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>494700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>659900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1391100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1206400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>334000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>309200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>385100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>272100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>474800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>321000</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3443,11 @@
       <c r="AE41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3445,77 +3535,80 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1225000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1264000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1002000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1028000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1128000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1192000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1028000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1082000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1174000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1132000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1076700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>833100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>616800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>752400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>889900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>823400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>831500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>827400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>709400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>636900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>623700</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3534,8 +3627,11 @@
       <c r="AE43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3543,68 +3639,68 @@
         <v>1690000</v>
       </c>
       <c r="E44" s="3">
+        <v>1690000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1596000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1538000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1340000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1334000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1345000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1373000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1383000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1450000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1424000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1578100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1597100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1065300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1019000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1050700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1068700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1053100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1035500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1004100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1008700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1005600</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3623,77 +3719,80 @@
       <c r="AE44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>370000</v>
+        <v>371000</v>
       </c>
       <c r="E45" s="3">
         <v>370000</v>
       </c>
       <c r="F45" s="3">
+        <v>370000</v>
+      </c>
+      <c r="G45" s="3">
         <v>394000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>326000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>338000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>315000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>237000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>242000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>227000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>273000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>267000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>191300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>118100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>142800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>98500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>109100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>113800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>143300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>316600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>758100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>106600</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3712,77 +3811,80 @@
       <c r="AE45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3565000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3652000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3548000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3279000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3154000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3307000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3194000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3276000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3160000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3431000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3344000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3416500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3281400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3191300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3120600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2373100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2310400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2383500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2278300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2504900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2703700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2056900</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3801,13 +3903,16 @@
       <c r="AE46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="E47" s="3">
         <v>27000</v>
@@ -3816,62 +3921,62 @@
         <v>27000</v>
       </c>
       <c r="G47" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H47" s="3">
         <v>28000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>31000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>22000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>33400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>17900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>16300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>15300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>14900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12800</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3890,77 +3995,80 @@
       <c r="AE47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>992000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1007000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>999000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>936000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>961000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>987000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1061000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1041000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1033000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1271000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1503400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1242500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>924100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>930100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1040300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>993400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1012400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1010900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>922400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>909300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>877700</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3979,77 +4087,80 @@
       <c r="AE48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9377000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10718000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10852000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10835000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10482000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10957000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11511000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11759000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12007000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11994000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12048000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12612100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12220300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5476700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5459500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5472400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5381400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5312400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5319600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5411000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5483600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5467200</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
@@ -4068,8 +4179,11 @@
       <c r="AE49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,77 +4363,80 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E52" s="3">
         <v>392000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>342000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>351000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>348000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>345000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>536000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>365000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>336000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>357000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>291000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>127300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>471100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>264300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>197000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>81200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>120600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>132300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>122900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>103100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>100000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>162800</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4335,8 +4455,11 @@
       <c r="AE52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,77 +4547,80 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14344000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15796000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15769000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15491000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14948000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15601000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16251000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16483000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16565000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16833000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16988000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17692700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17237000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9876000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9727200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8985800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8823700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8856900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8747400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8956700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9211500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8577400</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4513,8 +4639,11 @@
       <c r="AE54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,77 +4709,78 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>296000</v>
+      </c>
+      <c r="E57" s="3">
         <v>354000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>381000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>390000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>350000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>386000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>402000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>418000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>436000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>506000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>411000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>501000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>355900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>242500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>215000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>222600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>206100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>242900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>252100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>205200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>202700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>193900</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4799,11 @@
       <c r="AE57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4677,61 +4811,61 @@
         <v>39000</v>
       </c>
       <c r="E58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F58" s="3">
         <v>381000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>388000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>394000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>56000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>61000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>294000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>61000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>555000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>605000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>554500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>553600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>25900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>24500</v>
       </c>
       <c r="S58" s="3">
         <v>24500</v>
       </c>
       <c r="T58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="U58" s="3">
         <v>27100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>29000</v>
       </c>
       <c r="V58" s="3">
         <v>29000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
+      <c r="W58" s="3">
+        <v>29000</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
@@ -4748,8 +4882,8 @@
       <c r="AB58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AD58" s="3">
         <v>0</v>
@@ -4757,77 +4891,80 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E59" s="3">
         <v>891000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>816000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>924000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>869000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>896000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>844000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>931000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>865000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>929000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1018000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1020800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>961700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>567000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>466500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>571400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>510900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>507500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>427100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>736500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1042700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>364500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4846,77 +4983,80 @@
       <c r="AE59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1265000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1284000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1578000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1702000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1613000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1338000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1307000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1643000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1362000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1990000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2034000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2076300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1871200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>835400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>707500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>818500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>741500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>777500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>708200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>970700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1245400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>558400</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4935,74 +5075,77 @@
       <c r="AE60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5870000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6023000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5639000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5448000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5507000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6007000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6073000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6025000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6273000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5542000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5556000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5572400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5586500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2030400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2035600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2330500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2335600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2382000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2436600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2443300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2478500</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -5024,77 +5167,80 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1069000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1072000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1052000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1083000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1116000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1259000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1277000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1248000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1321000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1391000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1568100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1435100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>358300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>322600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>289900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>258900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>431900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>406400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>345200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>350500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>432400</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,8 +5259,11 @@
       <c r="AE62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,77 +5535,80 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8210000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8376000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8289000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8202000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8203000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8461000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8639000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8945000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8883000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8853000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8981000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9216800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8892800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3224100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3065700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3438900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3336000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3591400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3551200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3759200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4074400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>990800</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5469,8 +5627,11 @@
       <c r="AE66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5769,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,77 +6029,80 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2147000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1051000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-954000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1057000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-972000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-923000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-901000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-949000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-852000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-748000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-538000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-477200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-154400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>84300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>93800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>83800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>47900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16400</v>
       </c>
-      <c r="W72" s="3">
-        <v>0</v>
-      </c>
       <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
         <v>7947500</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5947,8 +6121,11 @@
       <c r="AE72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,77 +6397,80 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6134000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7420000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7480000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7289000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6745000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7140000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7612000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7538000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7682000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7980000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8007000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8475900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8344200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6651900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6661500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5546900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5487700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5265500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5196200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5197500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5137100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7586600</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6303,8 +6489,11 @@
       <c r="AE76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,91 +6581,94 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6486,86 +6678,89 @@
       <c r="AE80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1096000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-97000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>103000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-55000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-49000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-10000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>48000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-108000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-104000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-210000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-61000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-322800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-135000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-49100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>35900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>31500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>60200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-62800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>72700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-20700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-128500</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
@@ -6575,8 +6770,11 @@
       <c r="AE81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,86 +6806,87 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E83" s="3">
         <v>177000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>173000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>168000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>167000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>171000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>176000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>174000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>170000</v>
       </c>
       <c r="L83" s="3">
         <v>170000</v>
       </c>
       <c r="M83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="N83" s="3">
         <v>202000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>222200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>132300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>80900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>81500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>83400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>78700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>69300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>83100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>73700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>72700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>75300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>74300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>75200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>156100</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6697,8 +6896,11 @@
       <c r="AE83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,86 +7356,89 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E89" s="3">
         <v>61000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-145000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>189000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>312000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-62000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>223000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>89000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>149000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-92900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-111700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>159300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>126300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>50100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>139500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>163900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>136900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>47000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>76500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>90600</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7231,8 +7448,11 @@
       <c r="AE89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,86 +7484,87 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-79000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-91000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-118400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>-12600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-54400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-60200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-23800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-21700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
@@ -7353,8 +7574,11 @@
       <c r="AE91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,86 +7758,89 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-55000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-76000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-37000</v>
       </c>
       <c r="H94" s="3">
         <v>-37000</v>
       </c>
       <c r="I94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-29000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-74000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-441000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-73300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4696900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>10600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-74300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-83000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-49000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-28500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-48100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-23100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-34400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-25300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-903800</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7620,8 +7850,11 @@
       <c r="AE94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,8 +7886,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7742,8 +7976,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,86 +8252,89 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E100" s="3">
         <v>39000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>174000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-84000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-169000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-96000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>44000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>231000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-67000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4068300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>896600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-48800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>89700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-339500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-362400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>450900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-47200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-76500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>31600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>811900</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
@@ -8098,86 +8344,89 @@
       <c r="AE100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>32000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-30000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-25000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-21000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-14500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>13600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>20500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>6900</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC101" s="3" t="s">
         <v>3</v>
       </c>
@@ -8187,86 +8436,89 @@
       <c r="AE101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>49000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-115000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-47000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>165000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-296000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>185000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-127000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>65000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-165200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-731200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>184700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>872000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>24800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-76300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>96000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-376900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-257400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>613900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>57600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-60000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>79200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5600</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
@@ -8274,6 +8526,9 @@
         <v>3</v>
       </c>
       <c r="AE102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
